--- a/QBO Data (2).xlsx
+++ b/QBO Data (2).xlsx
@@ -8,1152 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37a0ce551f5721cc/Documents/Coding TA/Uji Coba TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_5C01B3BFD3505B2853DA2511595ED87656CC0979" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{441555FA-BAD3-4F0B-9A32-74853F861165}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_5C01B3BFD3505B2853DA2511595ED87656CC0979" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{058491C5-2934-4700-A77F-7A33A5862A1E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>01011987</t>
-  </si>
-  <si>
-    <t>01021987</t>
-  </si>
-  <si>
-    <t>01031987</t>
-  </si>
-  <si>
-    <t>01041987</t>
-  </si>
-  <si>
-    <t>01051987</t>
-  </si>
-  <si>
-    <t>01061987</t>
-  </si>
-  <si>
-    <t>01071987</t>
-  </si>
-  <si>
-    <t>01081987</t>
-  </si>
-  <si>
-    <t>01091987</t>
-  </si>
-  <si>
-    <t>01101987</t>
-  </si>
-  <si>
-    <t>01111987</t>
-  </si>
-  <si>
-    <t>01121987</t>
-  </si>
-  <si>
-    <t>01011988</t>
-  </si>
-  <si>
-    <t>01021988</t>
-  </si>
-  <si>
-    <t>01031988</t>
-  </si>
-  <si>
-    <t>01041988</t>
-  </si>
-  <si>
-    <t>01051988</t>
-  </si>
-  <si>
-    <t>01061988</t>
-  </si>
-  <si>
-    <t>01071988</t>
-  </si>
-  <si>
-    <t>01081988</t>
-  </si>
-  <si>
-    <t>01091988</t>
-  </si>
-  <si>
-    <t>01101988</t>
-  </si>
-  <si>
-    <t>01111988</t>
-  </si>
-  <si>
-    <t>01121988</t>
-  </si>
-  <si>
-    <t>01011989</t>
-  </si>
-  <si>
-    <t>01021989</t>
-  </si>
-  <si>
-    <t>01031989</t>
-  </si>
-  <si>
-    <t>01041989</t>
-  </si>
-  <si>
-    <t>01051989</t>
-  </si>
-  <si>
-    <t>01061989</t>
-  </si>
-  <si>
-    <t>01071989</t>
-  </si>
-  <si>
-    <t>01081989</t>
-  </si>
-  <si>
-    <t>01091989</t>
-  </si>
-  <si>
-    <t>01101989</t>
-  </si>
-  <si>
-    <t>01111989</t>
-  </si>
-  <si>
-    <t>01121989</t>
-  </si>
-  <si>
-    <t>01011990</t>
-  </si>
-  <si>
-    <t>01021990</t>
-  </si>
-  <si>
-    <t>01031990</t>
-  </si>
-  <si>
-    <t>01041990</t>
-  </si>
-  <si>
-    <t>01051990</t>
-  </si>
-  <si>
-    <t>01061990</t>
-  </si>
-  <si>
-    <t>01071990</t>
-  </si>
-  <si>
-    <t>01081990</t>
-  </si>
-  <si>
-    <t>01091990</t>
-  </si>
-  <si>
-    <t>01101990</t>
-  </si>
-  <si>
-    <t>01111990</t>
-  </si>
-  <si>
-    <t>01121990</t>
-  </si>
-  <si>
-    <t>01011991</t>
-  </si>
-  <si>
-    <t>01021991</t>
-  </si>
-  <si>
-    <t>01031991</t>
-  </si>
-  <si>
-    <t>01041991</t>
-  </si>
-  <si>
-    <t>01051991</t>
-  </si>
-  <si>
-    <t>01061991</t>
-  </si>
-  <si>
-    <t>01071991</t>
-  </si>
-  <si>
-    <t>01081991</t>
-  </si>
-  <si>
-    <t>01091991</t>
-  </si>
-  <si>
-    <t>01101991</t>
-  </si>
-  <si>
-    <t>01111991</t>
-  </si>
-  <si>
-    <t>01121991</t>
-  </si>
-  <si>
-    <t>01011992</t>
-  </si>
-  <si>
-    <t>01021992</t>
-  </si>
-  <si>
-    <t>01031992</t>
-  </si>
-  <si>
-    <t>01041992</t>
-  </si>
-  <si>
-    <t>01051992</t>
-  </si>
-  <si>
-    <t>01061992</t>
-  </si>
-  <si>
-    <t>01071992</t>
-  </si>
-  <si>
-    <t>01081992</t>
-  </si>
-  <si>
-    <t>01091992</t>
-  </si>
-  <si>
-    <t>01101992</t>
-  </si>
-  <si>
-    <t>01111992</t>
-  </si>
-  <si>
-    <t>01121992</t>
-  </si>
-  <si>
-    <t>01011993</t>
-  </si>
-  <si>
-    <t>01021993</t>
-  </si>
-  <si>
-    <t>01031993</t>
-  </si>
-  <si>
-    <t>01041993</t>
-  </si>
-  <si>
-    <t>01051993</t>
-  </si>
-  <si>
-    <t>01061993</t>
-  </si>
-  <si>
-    <t>01071993</t>
-  </si>
-  <si>
-    <t>01081993</t>
-  </si>
-  <si>
-    <t>01091993</t>
-  </si>
-  <si>
-    <t>01101993</t>
-  </si>
-  <si>
-    <t>01111993</t>
-  </si>
-  <si>
-    <t>01121993</t>
-  </si>
-  <si>
-    <t>01011994</t>
-  </si>
-  <si>
-    <t>01021994</t>
-  </si>
-  <si>
-    <t>01031994</t>
-  </si>
-  <si>
-    <t>01041994</t>
-  </si>
-  <si>
-    <t>01051994</t>
-  </si>
-  <si>
-    <t>01061994</t>
-  </si>
-  <si>
-    <t>01071994</t>
-  </si>
-  <si>
-    <t>01081994</t>
-  </si>
-  <si>
-    <t>01091994</t>
-  </si>
-  <si>
-    <t>01101994</t>
-  </si>
-  <si>
-    <t>01111994</t>
-  </si>
-  <si>
-    <t>01121994</t>
-  </si>
-  <si>
-    <t>01011995</t>
-  </si>
-  <si>
-    <t>01021995</t>
-  </si>
-  <si>
-    <t>01031995</t>
-  </si>
-  <si>
-    <t>01041995</t>
-  </si>
-  <si>
-    <t>01051995</t>
-  </si>
-  <si>
-    <t>01061995</t>
-  </si>
-  <si>
-    <t>01071995</t>
-  </si>
-  <si>
-    <t>01081995</t>
-  </si>
-  <si>
-    <t>01091995</t>
-  </si>
-  <si>
-    <t>01101995</t>
-  </si>
-  <si>
-    <t>01111995</t>
-  </si>
-  <si>
-    <t>01121995</t>
-  </si>
-  <si>
-    <t>01011996</t>
-  </si>
-  <si>
-    <t>01021996</t>
-  </si>
-  <si>
-    <t>01031996</t>
-  </si>
-  <si>
-    <t>01041996</t>
-  </si>
-  <si>
-    <t>01051996</t>
-  </si>
-  <si>
-    <t>01061996</t>
-  </si>
-  <si>
-    <t>01071996</t>
-  </si>
-  <si>
-    <t>01081996</t>
-  </si>
-  <si>
-    <t>01091996</t>
-  </si>
-  <si>
-    <t>01101996</t>
-  </si>
-  <si>
-    <t>01111996</t>
-  </si>
-  <si>
-    <t>01121996</t>
-  </si>
-  <si>
-    <t>01011997</t>
-  </si>
-  <si>
-    <t>01021997</t>
-  </si>
-  <si>
-    <t>01031997</t>
-  </si>
-  <si>
-    <t>01041997</t>
-  </si>
-  <si>
-    <t>01051997</t>
-  </si>
-  <si>
-    <t>01061997</t>
-  </si>
-  <si>
-    <t>01071997</t>
-  </si>
-  <si>
-    <t>01081997</t>
-  </si>
-  <si>
-    <t>01091997</t>
-  </si>
-  <si>
-    <t>01101997</t>
-  </si>
-  <si>
-    <t>01111997</t>
-  </si>
-  <si>
-    <t>01121997</t>
-  </si>
-  <si>
-    <t>01011998</t>
-  </si>
-  <si>
-    <t>01021998</t>
-  </si>
-  <si>
-    <t>01031998</t>
-  </si>
-  <si>
-    <t>01041998</t>
-  </si>
-  <si>
-    <t>01051998</t>
-  </si>
-  <si>
-    <t>01061998</t>
-  </si>
-  <si>
-    <t>01071998</t>
-  </si>
-  <si>
-    <t>01081998</t>
-  </si>
-  <si>
-    <t>01091998</t>
-  </si>
-  <si>
-    <t>01101998</t>
-  </si>
-  <si>
-    <t>01111998</t>
-  </si>
-  <si>
-    <t>01121998</t>
-  </si>
-  <si>
-    <t>01011999</t>
-  </si>
-  <si>
-    <t>01021999</t>
-  </si>
-  <si>
-    <t>01031999</t>
-  </si>
-  <si>
-    <t>01041999</t>
-  </si>
-  <si>
-    <t>01051999</t>
-  </si>
-  <si>
-    <t>01061999</t>
-  </si>
-  <si>
-    <t>01071999</t>
-  </si>
-  <si>
-    <t>01081999</t>
-  </si>
-  <si>
-    <t>01091999</t>
-  </si>
-  <si>
-    <t>01101999</t>
-  </si>
-  <si>
-    <t>01111999</t>
-  </si>
-  <si>
-    <t>01121999</t>
-  </si>
-  <si>
-    <t>01012000</t>
-  </si>
-  <si>
-    <t>01022000</t>
-  </si>
-  <si>
-    <t>01032000</t>
-  </si>
-  <si>
-    <t>01042000</t>
-  </si>
-  <si>
-    <t>01052000</t>
-  </si>
-  <si>
-    <t>01062000</t>
-  </si>
-  <si>
-    <t>01072000</t>
-  </si>
-  <si>
-    <t>01082000</t>
-  </si>
-  <si>
-    <t>01092000</t>
-  </si>
-  <si>
-    <t>01102000</t>
-  </si>
-  <si>
-    <t>01112000</t>
-  </si>
-  <si>
-    <t>01122000</t>
-  </si>
-  <si>
-    <t>01012001</t>
-  </si>
-  <si>
-    <t>01022001</t>
-  </si>
-  <si>
-    <t>01032001</t>
-  </si>
-  <si>
-    <t>01042001</t>
-  </si>
-  <si>
-    <t>01052001</t>
-  </si>
-  <si>
-    <t>01062001</t>
-  </si>
-  <si>
-    <t>01072001</t>
-  </si>
-  <si>
-    <t>01082001</t>
-  </si>
-  <si>
-    <t>01092001</t>
-  </si>
-  <si>
-    <t>01102001</t>
-  </si>
-  <si>
-    <t>01112001</t>
-  </si>
-  <si>
-    <t>01122001</t>
-  </si>
-  <si>
-    <t>01012002</t>
-  </si>
-  <si>
-    <t>01022002</t>
-  </si>
-  <si>
-    <t>01032002</t>
-  </si>
-  <si>
-    <t>01042002</t>
-  </si>
-  <si>
-    <t>01052002</t>
-  </si>
-  <si>
-    <t>01062002</t>
-  </si>
-  <si>
-    <t>01072002</t>
-  </si>
-  <si>
-    <t>01082002</t>
-  </si>
-  <si>
-    <t>01092002</t>
-  </si>
-  <si>
-    <t>01102002</t>
-  </si>
-  <si>
-    <t>01112002</t>
-  </si>
-  <si>
-    <t>01122002</t>
-  </si>
-  <si>
-    <t>01012003</t>
-  </si>
-  <si>
-    <t>01022003</t>
-  </si>
-  <si>
-    <t>01032003</t>
-  </si>
-  <si>
-    <t>01042003</t>
-  </si>
-  <si>
-    <t>01052003</t>
-  </si>
-  <si>
-    <t>01062003</t>
-  </si>
-  <si>
-    <t>01072003</t>
-  </si>
-  <si>
-    <t>01082003</t>
-  </si>
-  <si>
-    <t>01092003</t>
-  </si>
-  <si>
-    <t>01102003</t>
-  </si>
-  <si>
-    <t>01112003</t>
-  </si>
-  <si>
-    <t>01122003</t>
-  </si>
-  <si>
-    <t>01012004</t>
-  </si>
-  <si>
-    <t>01022004</t>
-  </si>
-  <si>
-    <t>01032004</t>
-  </si>
-  <si>
-    <t>01042004</t>
-  </si>
-  <si>
-    <t>01052004</t>
-  </si>
-  <si>
-    <t>01062004</t>
-  </si>
-  <si>
-    <t>01072004</t>
-  </si>
-  <si>
-    <t>01082004</t>
-  </si>
-  <si>
-    <t>01092004</t>
-  </si>
-  <si>
-    <t>01102004</t>
-  </si>
-  <si>
-    <t>01112004</t>
-  </si>
-  <si>
-    <t>01122004</t>
-  </si>
-  <si>
-    <t>01012005</t>
-  </si>
-  <si>
-    <t>01022005</t>
-  </si>
-  <si>
-    <t>01032005</t>
-  </si>
-  <si>
-    <t>01042005</t>
-  </si>
-  <si>
-    <t>01052005</t>
-  </si>
-  <si>
-    <t>01062005</t>
-  </si>
-  <si>
-    <t>01072005</t>
-  </si>
-  <si>
-    <t>01082005</t>
-  </si>
-  <si>
-    <t>01092005</t>
-  </si>
-  <si>
-    <t>01102005</t>
-  </si>
-  <si>
-    <t>01112005</t>
-  </si>
-  <si>
-    <t>01122005</t>
-  </si>
-  <si>
-    <t>01012006</t>
-  </si>
-  <si>
-    <t>01022006</t>
-  </si>
-  <si>
-    <t>01032006</t>
-  </si>
-  <si>
-    <t>01042006</t>
-  </si>
-  <si>
-    <t>01052006</t>
-  </si>
-  <si>
-    <t>01062006</t>
-  </si>
-  <si>
-    <t>01072006</t>
-  </si>
-  <si>
-    <t>01082006</t>
-  </si>
-  <si>
-    <t>01092006</t>
-  </si>
-  <si>
-    <t>01102006</t>
-  </si>
-  <si>
-    <t>01112006</t>
-  </si>
-  <si>
-    <t>01122006</t>
-  </si>
-  <si>
-    <t>01012007</t>
-  </si>
-  <si>
-    <t>01022007</t>
-  </si>
-  <si>
-    <t>01032007</t>
-  </si>
-  <si>
-    <t>01042007</t>
-  </si>
-  <si>
-    <t>01052007</t>
-  </si>
-  <si>
-    <t>01062007</t>
-  </si>
-  <si>
-    <t>01072007</t>
-  </si>
-  <si>
-    <t>01082007</t>
-  </si>
-  <si>
-    <t>01092007</t>
-  </si>
-  <si>
-    <t>01102007</t>
-  </si>
-  <si>
-    <t>01112007</t>
-  </si>
-  <si>
-    <t>01122007</t>
-  </si>
-  <si>
-    <t>01012008</t>
-  </si>
-  <si>
-    <t>01022008</t>
-  </si>
-  <si>
-    <t>01032008</t>
-  </si>
-  <si>
-    <t>01042008</t>
-  </si>
-  <si>
-    <t>01052008</t>
-  </si>
-  <si>
-    <t>01062008</t>
-  </si>
-  <si>
-    <t>01072008</t>
-  </si>
-  <si>
-    <t>01082008</t>
-  </si>
-  <si>
-    <t>01092008</t>
-  </si>
-  <si>
-    <t>01102008</t>
-  </si>
-  <si>
-    <t>01112008</t>
-  </si>
-  <si>
-    <t>01122008</t>
-  </si>
-  <si>
-    <t>01012009</t>
-  </si>
-  <si>
-    <t>01022009</t>
-  </si>
-  <si>
-    <t>01032009</t>
-  </si>
-  <si>
-    <t>01042009</t>
-  </si>
-  <si>
-    <t>01052009</t>
-  </si>
-  <si>
-    <t>01062009</t>
-  </si>
-  <si>
-    <t>01072009</t>
-  </si>
-  <si>
-    <t>01082009</t>
-  </si>
-  <si>
-    <t>01092009</t>
-  </si>
-  <si>
-    <t>01102009</t>
-  </si>
-  <si>
-    <t>01112009</t>
-  </si>
-  <si>
-    <t>01122009</t>
-  </si>
-  <si>
-    <t>01012010</t>
-  </si>
-  <si>
-    <t>01022010</t>
-  </si>
-  <si>
-    <t>01032010</t>
-  </si>
-  <si>
-    <t>01042010</t>
-  </si>
-  <si>
-    <t>01052010</t>
-  </si>
-  <si>
-    <t>01062010</t>
-  </si>
-  <si>
-    <t>01072010</t>
-  </si>
-  <si>
-    <t>01082010</t>
-  </si>
-  <si>
-    <t>01092010</t>
-  </si>
-  <si>
-    <t>01102010</t>
-  </si>
-  <si>
-    <t>01112010</t>
-  </si>
-  <si>
-    <t>01122010</t>
-  </si>
-  <si>
-    <t>01012011</t>
-  </si>
-  <si>
-    <t>01022011</t>
-  </si>
-  <si>
-    <t>01032011</t>
-  </si>
-  <si>
-    <t>01042011</t>
-  </si>
-  <si>
-    <t>01052011</t>
-  </si>
-  <si>
-    <t>01062011</t>
-  </si>
-  <si>
-    <t>01072011</t>
-  </si>
-  <si>
-    <t>01082011</t>
-  </si>
-  <si>
-    <t>01092011</t>
-  </si>
-  <si>
-    <t>01102011</t>
-  </si>
-  <si>
-    <t>01112011</t>
-  </si>
-  <si>
-    <t>01122011</t>
-  </si>
-  <si>
-    <t>01012012</t>
-  </si>
-  <si>
-    <t>01022012</t>
-  </si>
-  <si>
-    <t>01032012</t>
-  </si>
-  <si>
-    <t>01042012</t>
-  </si>
-  <si>
-    <t>01052012</t>
-  </si>
-  <si>
-    <t>01062012</t>
-  </si>
-  <si>
-    <t>01072012</t>
-  </si>
-  <si>
-    <t>01082012</t>
-  </si>
-  <si>
-    <t>01092012</t>
-  </si>
-  <si>
-    <t>01102012</t>
-  </si>
-  <si>
-    <t>01112012</t>
-  </si>
-  <si>
-    <t>01122012</t>
-  </si>
-  <si>
-    <t>01012013</t>
-  </si>
-  <si>
-    <t>01022013</t>
-  </si>
-  <si>
-    <t>01032013</t>
-  </si>
-  <si>
-    <t>01042013</t>
-  </si>
-  <si>
-    <t>01052013</t>
-  </si>
-  <si>
-    <t>01062013</t>
-  </si>
-  <si>
-    <t>01072013</t>
-  </si>
-  <si>
-    <t>01082013</t>
-  </si>
-  <si>
-    <t>01092013</t>
-  </si>
-  <si>
-    <t>01102013</t>
-  </si>
-  <si>
-    <t>01112013</t>
-  </si>
-  <si>
-    <t>01122013</t>
-  </si>
-  <si>
-    <t>01012014</t>
-  </si>
-  <si>
-    <t>01022014</t>
-  </si>
-  <si>
-    <t>01032014</t>
-  </si>
-  <si>
-    <t>01042014</t>
-  </si>
-  <si>
-    <t>01052014</t>
-  </si>
-  <si>
-    <t>01062014</t>
-  </si>
-  <si>
-    <t>01072014</t>
-  </si>
-  <si>
-    <t>01082014</t>
-  </si>
-  <si>
-    <t>01092014</t>
-  </si>
-  <si>
-    <t>01102014</t>
-  </si>
-  <si>
-    <t>01112014</t>
-  </si>
-  <si>
-    <t>01122014</t>
-  </si>
-  <si>
-    <t>01012015</t>
-  </si>
-  <si>
-    <t>01022015</t>
-  </si>
-  <si>
-    <t>01032015</t>
-  </si>
-  <si>
-    <t>01042015</t>
-  </si>
-  <si>
-    <t>01052015</t>
-  </si>
-  <si>
-    <t>01062015</t>
-  </si>
-  <si>
-    <t>01072015</t>
-  </si>
-  <si>
-    <t>01082015</t>
-  </si>
-  <si>
-    <t>01092015</t>
-  </si>
-  <si>
-    <t>01102015</t>
-  </si>
-  <si>
-    <t>01112015</t>
-  </si>
-  <si>
-    <t>01122015</t>
-  </si>
-  <si>
-    <t>01012016</t>
-  </si>
-  <si>
-    <t>01022016</t>
-  </si>
-  <si>
-    <t>01032016</t>
-  </si>
-  <si>
-    <t>01042016</t>
-  </si>
-  <si>
-    <t>01052016</t>
-  </si>
-  <si>
-    <t>01062016</t>
-  </si>
-  <si>
-    <t>01072016</t>
-  </si>
-  <si>
-    <t>01082016</t>
-  </si>
-  <si>
-    <t>01092016</t>
-  </si>
-  <si>
-    <t>01102016</t>
-  </si>
-  <si>
-    <t>01112016</t>
-  </si>
-  <si>
-    <t>01122016</t>
-  </si>
-  <si>
-    <t>01012017</t>
-  </si>
-  <si>
-    <t>01022017</t>
-  </si>
-  <si>
-    <t>01032017</t>
-  </si>
-  <si>
-    <t>01042017</t>
-  </si>
-  <si>
-    <t>01052017</t>
-  </si>
-  <si>
-    <t>01062017</t>
-  </si>
-  <si>
-    <t>01072017</t>
-  </si>
-  <si>
-    <t>01082017</t>
-  </si>
-  <si>
-    <t>01092017</t>
-  </si>
-  <si>
-    <t>01102017</t>
-  </si>
-  <si>
-    <t>01112017</t>
-  </si>
-  <si>
-    <t>01122017</t>
-  </si>
-  <si>
-    <t>01012018</t>
-  </si>
-  <si>
-    <t>01022018</t>
-  </si>
-  <si>
-    <t>01032018</t>
-  </si>
-  <si>
-    <t>01042018</t>
-  </si>
-  <si>
-    <t>01052018</t>
   </si>
   <si>
     <t>30 hPa</t>
@@ -1224,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1236,6 +105,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1540,26 +412,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D378"/>
+  <dimension ref="A1:D414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
-      <selection activeCell="F374" sqref="F374"/>
+    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
+      <selection activeCell="A410" sqref="A410:D414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>378</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>379</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>380</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -1575,8 +449,9 @@
       <c r="C2" s="1">
         <v>-326</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
+      <c r="D2" s="5">
+        <f>DATE(1987,1,1)</f>
+        <v>31778</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1589,8 +464,9 @@
       <c r="C3" s="1">
         <v>-307</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
+      <c r="D3" s="5">
+        <f>DATE(1987,2,1)</f>
+        <v>31809</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1603,8 +479,9 @@
       <c r="C4" s="1">
         <v>-311</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
+      <c r="D4" s="5">
+        <f>DATE(1987,3,1)</f>
+        <v>31837</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1617,8 +494,9 @@
       <c r="C5" s="1">
         <v>-328</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
+      <c r="D5" s="5">
+        <f>DATE(1987,4,1)</f>
+        <v>31868</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1631,8 +509,9 @@
       <c r="C6" s="1">
         <v>-295</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
+      <c r="D6" s="5">
+        <f>DATE(1987,5,1)</f>
+        <v>31898</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1645,8 +524,9 @@
       <c r="C7" s="1">
         <v>-11</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
+      <c r="D7" s="5">
+        <f>DATE(1987,6,1)</f>
+        <v>31929</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1659,8 +539,9 @@
       <c r="C8" s="1">
         <v>93</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
+      <c r="D8" s="5">
+        <f>DATE(1987,7,1)</f>
+        <v>31959</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1673,8 +554,9 @@
       <c r="C9" s="1">
         <v>124</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
+      <c r="D9" s="5">
+        <f>DATE(1987,8,1)</f>
+        <v>31990</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1687,8 +569,9 @@
       <c r="C10" s="1">
         <v>145</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
+      <c r="D10" s="5">
+        <f>DATE(1987,9,1)</f>
+        <v>32021</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1701,8 +584,9 @@
       <c r="C11" s="1">
         <v>133</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
+      <c r="D11" s="5">
+        <f>DATE(1987,10,1)</f>
+        <v>32051</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1715,8 +599,9 @@
       <c r="C12" s="1">
         <v>124</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
+      <c r="D12" s="5">
+        <f>DATE(1987,11,1)</f>
+        <v>32082</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1729,8 +614,9 @@
       <c r="C13" s="1">
         <v>86</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
+      <c r="D13" s="5">
+        <f>DATE(1987,12,1)</f>
+        <v>32112</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1743,8 +629,9 @@
       <c r="C14" s="1">
         <v>89</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
+      <c r="D14" s="5">
+        <f>DATE(1988,1,1)</f>
+        <v>32143</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1757,8 +644,9 @@
       <c r="C15" s="1">
         <v>12</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
+      <c r="D15" s="5">
+        <f>DATE(1988,2,1)</f>
+        <v>32174</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1771,8 +659,9 @@
       <c r="C16" s="1">
         <v>-53</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>15</v>
+      <c r="D16" s="5">
+        <f>DATE(1988,3,1)</f>
+        <v>32203</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1785,8 +674,9 @@
       <c r="C17" s="1">
         <v>-150</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>16</v>
+      <c r="D17" s="5">
+        <f>DATE(1988,4,1)</f>
+        <v>32234</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1799,8 +689,9 @@
       <c r="C18" s="1">
         <v>-258</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>17</v>
+      <c r="D18" s="5">
+        <f>DATE(1988,5,1)</f>
+        <v>32264</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1813,8 +704,9 @@
       <c r="C19" s="1">
         <v>-297</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>18</v>
+      <c r="D19" s="5">
+        <f>DATE(1988,6,1)</f>
+        <v>32295</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1827,8 +719,9 @@
       <c r="C20" s="1">
         <v>-322</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>19</v>
+      <c r="D20" s="5">
+        <f>DATE(1988,7,1)</f>
+        <v>32325</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1841,8 +734,9 @@
       <c r="C21" s="1">
         <v>-327</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>20</v>
+      <c r="D21" s="5">
+        <f>DATE(1988,8,1)</f>
+        <v>32356</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1855,8 +749,9 @@
       <c r="C22" s="1">
         <v>-334</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>21</v>
+      <c r="D22" s="5">
+        <f>DATE(1988,9,1)</f>
+        <v>32387</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1869,8 +764,9 @@
       <c r="C23" s="1">
         <v>-321</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>22</v>
+      <c r="D23" s="5">
+        <f>DATE(1988,10,1)</f>
+        <v>32417</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1883,8 +779,9 @@
       <c r="C24" s="1">
         <v>-306</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>23</v>
+      <c r="D24" s="5">
+        <f>DATE(1988,11,1)</f>
+        <v>32448</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1897,8 +794,9 @@
       <c r="C25" s="1">
         <v>-306</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>24</v>
+      <c r="D25" s="5">
+        <f>DATE(1988,12,1)</f>
+        <v>32478</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1911,8 +809,9 @@
       <c r="C26" s="1">
         <v>-328</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>25</v>
+      <c r="D26" s="5">
+        <f>DATE(1989,1,1)</f>
+        <v>32509</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1925,8 +824,9 @@
       <c r="C27" s="1">
         <v>-310</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>26</v>
+      <c r="D27" s="5">
+        <f>DATE(1989,2,1)</f>
+        <v>32540</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1939,8 +839,9 @@
       <c r="C28" s="1">
         <v>-303</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>27</v>
+      <c r="D28" s="5">
+        <f>DATE(1989,3,1)</f>
+        <v>32568</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1953,8 +854,9 @@
       <c r="C29" s="1">
         <v>-323</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>28</v>
+      <c r="D29" s="5">
+        <f>DATE(1989,4,1)</f>
+        <v>32599</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1967,8 +869,9 @@
       <c r="C30" s="1">
         <v>-327</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>29</v>
+      <c r="D30" s="5">
+        <f>DATE(1989,5,1)</f>
+        <v>32629</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1981,8 +884,9 @@
       <c r="C31" s="1">
         <v>-338</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>30</v>
+      <c r="D31" s="5">
+        <f>DATE(1989,6,1)</f>
+        <v>32660</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1995,8 +899,9 @@
       <c r="C32" s="1">
         <v>-363</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>31</v>
+      <c r="D32" s="5">
+        <f>DATE(1989,7,1)</f>
+        <v>32690</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2009,8 +914,9 @@
       <c r="C33" s="1">
         <v>-350</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>32</v>
+      <c r="D33" s="5">
+        <f>DATE(1989,8,1)</f>
+        <v>32721</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2023,8 +929,9 @@
       <c r="C34" s="1">
         <v>-346</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>33</v>
+      <c r="D34" s="5">
+        <f>DATE(1989,9,1)</f>
+        <v>32752</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2037,8 +944,9 @@
       <c r="C35" s="1">
         <v>-235</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>34</v>
+      <c r="D35" s="5">
+        <f>DATE(1989,10,1)</f>
+        <v>32782</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2051,8 +959,9 @@
       <c r="C36" s="1">
         <v>-95</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>35</v>
+      <c r="D36" s="5">
+        <f>DATE(1989,11,1)</f>
+        <v>32813</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2065,8 +974,9 @@
       <c r="C37" s="1">
         <v>127</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>36</v>
+      <c r="D37" s="5">
+        <f>DATE(1989,12,1)</f>
+        <v>32843</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2079,8 +989,9 @@
       <c r="C38" s="1">
         <v>131</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>37</v>
+      <c r="D38" s="5">
+        <f>DATE(1990,1,1)</f>
+        <v>32874</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2093,8 +1004,9 @@
       <c r="C39" s="1">
         <v>146</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>38</v>
+      <c r="D39" s="5">
+        <f>DATE(1990,2,1)</f>
+        <v>32905</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2107,8 +1019,9 @@
       <c r="C40" s="1">
         <v>181</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>39</v>
+      <c r="D40" s="5">
+        <f>DATE(1990,3,1)</f>
+        <v>32933</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2121,8 +1034,9 @@
       <c r="C41" s="1">
         <v>166</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>40</v>
+      <c r="D41" s="5">
+        <f>DATE(1990,4,1)</f>
+        <v>32964</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2135,8 +1049,9 @@
       <c r="C42" s="1">
         <v>136</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>41</v>
+      <c r="D42" s="5">
+        <f>DATE(1990,5,1)</f>
+        <v>32994</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2149,8 +1064,9 @@
       <c r="C43" s="1">
         <v>172</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>42</v>
+      <c r="D43" s="5">
+        <f>DATE(1990,6,1)</f>
+        <v>33025</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2163,8 +1079,9 @@
       <c r="C44" s="1">
         <v>118</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>43</v>
+      <c r="D44" s="5">
+        <f>DATE(1990,7,1)</f>
+        <v>33055</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2177,8 +1094,9 @@
       <c r="C45" s="1">
         <v>134</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>44</v>
+      <c r="D45" s="5">
+        <f>DATE(1990,8,1)</f>
+        <v>33086</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2191,8 +1109,9 @@
       <c r="C46" s="1">
         <v>143</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>45</v>
+      <c r="D46" s="5">
+        <f>DATE(1990,9,1)</f>
+        <v>33117</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2205,8 +1124,9 @@
       <c r="C47" s="1">
         <v>139</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>46</v>
+      <c r="D47" s="5">
+        <f>DATE(1990,10,1)</f>
+        <v>33147</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2219,8 +1139,9 @@
       <c r="C48" s="1">
         <v>110</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>47</v>
+      <c r="D48" s="5">
+        <f>DATE(1990,11,1)</f>
+        <v>33178</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2233,8 +1154,9 @@
       <c r="C49" s="1">
         <v>25</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>48</v>
+      <c r="D49" s="5">
+        <f>DATE(1990,12,1)</f>
+        <v>33208</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2247,8 +1169,9 @@
       <c r="C50" s="1">
         <v>7</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>49</v>
+      <c r="D50" s="5">
+        <f>DATE(1991,1,1)</f>
+        <v>33239</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2261,8 +1184,9 @@
       <c r="C51" s="1">
         <v>44</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>50</v>
+      <c r="D51" s="5">
+        <f>DATE(1991,2,1)</f>
+        <v>33270</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2275,8 +1199,9 @@
       <c r="C52" s="1">
         <v>10</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>51</v>
+      <c r="D52" s="5">
+        <f>DATE(1991,3,1)</f>
+        <v>33298</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2289,8 +1214,9 @@
       <c r="C53" s="1">
         <v>-182</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>52</v>
+      <c r="D53" s="5">
+        <f>DATE(1991,4,1)</f>
+        <v>33329</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2303,8 +1229,9 @@
       <c r="C54" s="1">
         <v>-256</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>53</v>
+      <c r="D54" s="5">
+        <f>DATE(1991,5,1)</f>
+        <v>33359</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2317,8 +1244,9 @@
       <c r="C55" s="1">
         <v>-286</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>54</v>
+      <c r="D55" s="5">
+        <f>DATE(1991,6,1)</f>
+        <v>33390</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2331,8 +1259,9 @@
       <c r="C56" s="1">
         <v>-293</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>55</v>
+      <c r="D56" s="5">
+        <f>DATE(1991,7,1)</f>
+        <v>33420</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2345,8 +1274,9 @@
       <c r="C57" s="1">
         <v>-287</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>56</v>
+      <c r="D57" s="5">
+        <f>DATE(1991,8,1)</f>
+        <v>33451</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2359,8 +1289,9 @@
       <c r="C58" s="1">
         <v>-288</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>57</v>
+      <c r="D58" s="5">
+        <f>DATE(1991,9,1)</f>
+        <v>33482</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2373,8 +1304,9 @@
       <c r="C59" s="1">
         <v>-269</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>58</v>
+      <c r="D59" s="5">
+        <f>DATE(1991,10,1)</f>
+        <v>33512</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2387,8 +1319,9 @@
       <c r="C60" s="1">
         <v>-275</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>59</v>
+      <c r="D60" s="5">
+        <f>DATE(1991,11,1)</f>
+        <v>33543</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2401,8 +1334,9 @@
       <c r="C61" s="1">
         <v>-268</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>60</v>
+      <c r="D61" s="5">
+        <f>DATE(1991,12,1)</f>
+        <v>33573</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2415,8 +1349,9 @@
       <c r="C62" s="1">
         <v>-289</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>61</v>
+      <c r="D62" s="5">
+        <f>DATE(1992,1,1)</f>
+        <v>33604</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2429,8 +1364,9 @@
       <c r="C63" s="1">
         <v>-299</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>62</v>
+      <c r="D63" s="5">
+        <f>DATE(1992,2,1)</f>
+        <v>33635</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2443,8 +1379,9 @@
       <c r="C64" s="1">
         <v>-289</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>63</v>
+      <c r="D64" s="5">
+        <f>DATE(1992,3,1)</f>
+        <v>33664</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2457,8 +1394,9 @@
       <c r="C65" s="1">
         <v>-250</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>64</v>
+      <c r="D65" s="5">
+        <f>DATE(1992,4,1)</f>
+        <v>33695</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2471,8 +1409,9 @@
       <c r="C66" s="1">
         <v>-42</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>65</v>
+      <c r="D66" s="5">
+        <f>DATE(1992,5,1)</f>
+        <v>33725</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2485,8 +1424,9 @@
       <c r="C67" s="1">
         <v>66</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>66</v>
+      <c r="D67" s="5">
+        <f>DATE(1992,6,1)</f>
+        <v>33756</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2499,8 +1439,9 @@
       <c r="C68" s="1">
         <v>79</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>67</v>
+      <c r="D68" s="5">
+        <f>DATE(1992,7,1)</f>
+        <v>33786</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2513,8 +1454,9 @@
       <c r="C69" s="1">
         <v>153</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>68</v>
+      <c r="D69" s="5">
+        <f>DATE(1992,8,1)</f>
+        <v>33817</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2527,8 +1469,9 @@
       <c r="C70" s="1">
         <v>159</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>69</v>
+      <c r="D70" s="5">
+        <f>DATE(1992,9,1)</f>
+        <v>33848</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2541,8 +1484,9 @@
       <c r="C71" s="1">
         <v>160</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>70</v>
+      <c r="D71" s="5">
+        <f>DATE(1992,10,1)</f>
+        <v>33878</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2555,8 +1499,9 @@
       <c r="C72" s="1">
         <v>189</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>71</v>
+      <c r="D72" s="5">
+        <f>DATE(1992,11,1)</f>
+        <v>33909</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2569,8 +1514,9 @@
       <c r="C73" s="1">
         <v>189</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>72</v>
+      <c r="D73" s="5">
+        <f>DATE(1992,12,1)</f>
+        <v>33939</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2583,8 +1529,9 @@
       <c r="C74" s="1">
         <v>178</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>73</v>
+      <c r="D74" s="5">
+        <f>DATE(1993,1,1)</f>
+        <v>33970</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2597,8 +1544,9 @@
       <c r="C75" s="1">
         <v>208</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>74</v>
+      <c r="D75" s="5">
+        <f>DATE(1993,2,1)</f>
+        <v>34001</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2611,8 +1559,9 @@
       <c r="C76" s="1">
         <v>190</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>75</v>
+      <c r="D76" s="5">
+        <f>DATE(1993,3,1)</f>
+        <v>34029</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2625,8 +1574,9 @@
       <c r="C77" s="1">
         <v>121</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>76</v>
+      <c r="D77" s="5">
+        <f>DATE(1993,4,1)</f>
+        <v>34060</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2639,8 +1589,9 @@
       <c r="C78" s="1">
         <v>-52</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>77</v>
+      <c r="D78" s="5">
+        <f>DATE(1993,5,1)</f>
+        <v>34090</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2653,8 +1604,9 @@
       <c r="C79" s="1">
         <v>-226</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>78</v>
+      <c r="D79" s="5">
+        <f>DATE(1993,6,1)</f>
+        <v>34121</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2667,8 +1619,9 @@
       <c r="C80" s="1">
         <v>-258</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>79</v>
+      <c r="D80" s="5">
+        <f>DATE(1993,7,1)</f>
+        <v>34151</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2681,8 +1634,9 @@
       <c r="C81" s="1">
         <v>-280</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>80</v>
+      <c r="D81" s="5">
+        <f>DATE(1993,8,1)</f>
+        <v>34182</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2695,8 +1649,9 @@
       <c r="C82" s="1">
         <v>-316</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>81</v>
+      <c r="D82" s="5">
+        <f>DATE(1993,9,1)</f>
+        <v>34213</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2709,8 +1664,9 @@
       <c r="C83" s="1">
         <v>-301</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>82</v>
+      <c r="D83" s="5">
+        <f>DATE(1993,10,1)</f>
+        <v>34243</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2723,8 +1679,9 @@
       <c r="C84" s="1">
         <v>-311</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>83</v>
+      <c r="D84" s="5">
+        <f>DATE(1993,11,1)</f>
+        <v>34274</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2737,8 +1694,9 @@
       <c r="C85" s="1">
         <v>-300</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>84</v>
+      <c r="D85" s="5">
+        <f>DATE(1993,12,1)</f>
+        <v>34304</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2751,8 +1709,9 @@
       <c r="C86" s="1">
         <v>-315</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>85</v>
+      <c r="D86" s="5">
+        <f>DATE(1994,1,1)</f>
+        <v>34335</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2765,8 +1724,9 @@
       <c r="C87" s="1">
         <v>-315</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>86</v>
+      <c r="D87" s="5">
+        <f>DATE(1994,2,1)</f>
+        <v>34366</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2779,8 +1739,9 @@
       <c r="C88" s="1">
         <v>-319</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>87</v>
+      <c r="D88" s="5">
+        <f>DATE(1994,3,1)</f>
+        <v>34394</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2793,8 +1754,9 @@
       <c r="C89" s="1">
         <v>-332</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>88</v>
+      <c r="D89" s="5">
+        <f>DATE(1994,4,1)</f>
+        <v>34425</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2807,8 +1769,9 @@
       <c r="C90" s="1">
         <v>-336</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>89</v>
+      <c r="D90" s="5">
+        <f>DATE(1994,5,1)</f>
+        <v>34455</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2821,8 +1784,9 @@
       <c r="C91" s="1">
         <v>-349</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>90</v>
+      <c r="D91" s="5">
+        <f>DATE(1994,6,1)</f>
+        <v>34486</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2835,8 +1799,9 @@
       <c r="C92" s="1">
         <v>-293</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>91</v>
+      <c r="D92" s="5">
+        <f>DATE(1994,7,1)</f>
+        <v>34516</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2849,8 +1814,9 @@
       <c r="C93" s="1">
         <v>-48</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>92</v>
+      <c r="D93" s="5">
+        <f>DATE(1994,8,1)</f>
+        <v>34547</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2863,8 +1829,9 @@
       <c r="C94" s="1">
         <v>86</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>93</v>
+      <c r="D94" s="5">
+        <f>DATE(1994,9,1)</f>
+        <v>34578</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2877,8 +1844,9 @@
       <c r="C95" s="1">
         <v>117</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>94</v>
+      <c r="D95" s="5">
+        <f>DATE(1994,10,1)</f>
+        <v>34608</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2891,8 +1859,9 @@
       <c r="C96" s="1">
         <v>160</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>95</v>
+      <c r="D96" s="5">
+        <f>DATE(1994,11,1)</f>
+        <v>34639</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2905,8 +1874,9 @@
       <c r="C97" s="1">
         <v>190</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>96</v>
+      <c r="D97" s="5">
+        <f>DATE(1994,12,1)</f>
+        <v>34669</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2919,8 +1889,9 @@
       <c r="C98" s="1">
         <v>174</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>97</v>
+      <c r="D98" s="5">
+        <f>DATE(1995,1,1)</f>
+        <v>34700</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2933,8 +1904,9 @@
       <c r="C99" s="1">
         <v>112</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>98</v>
+      <c r="D99" s="5">
+        <f>DATE(1995,2,1)</f>
+        <v>34731</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2947,8 +1919,9 @@
       <c r="C100" s="1">
         <v>111</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>99</v>
+      <c r="D100" s="5">
+        <f>DATE(1995,3,1)</f>
+        <v>34759</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2961,8 +1934,9 @@
       <c r="C101" s="1">
         <v>152</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>100</v>
+      <c r="D101" s="5">
+        <f>DATE(1995,4,1)</f>
+        <v>34790</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2975,8 +1949,9 @@
       <c r="C102" s="1">
         <v>148</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>101</v>
+      <c r="D102" s="5">
+        <f>DATE(1995,5,1)</f>
+        <v>34820</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2989,8 +1964,9 @@
       <c r="C103" s="1">
         <v>102</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>102</v>
+      <c r="D103" s="5">
+        <f>DATE(1995,6,1)</f>
+        <v>34851</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3003,8 +1979,9 @@
       <c r="C104" s="1">
         <v>16</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>103</v>
+      <c r="D104" s="5">
+        <f>DATE(1995,7,1)</f>
+        <v>34881</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3017,8 +1994,9 @@
       <c r="C105" s="1">
         <v>-28</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>104</v>
+      <c r="D105" s="5">
+        <f>DATE(1995,8,1)</f>
+        <v>34912</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3031,8 +2009,9 @@
       <c r="C106" s="1">
         <v>-66</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>105</v>
+      <c r="D106" s="5">
+        <f>DATE(1995,9,1)</f>
+        <v>34943</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3045,8 +2024,9 @@
       <c r="C107" s="1">
         <v>-134</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>106</v>
+      <c r="D107" s="5">
+        <f>DATE(1995,10,1)</f>
+        <v>34973</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3059,8 +2039,9 @@
       <c r="C108" s="1">
         <v>-191</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>107</v>
+      <c r="D108" s="5">
+        <f>DATE(1995,11,1)</f>
+        <v>35004</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3073,8 +2054,9 @@
       <c r="C109" s="1">
         <v>-232</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>108</v>
+      <c r="D109" s="5">
+        <f>DATE(1995,12,1)</f>
+        <v>35034</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3087,8 +2069,9 @@
       <c r="C110" s="1">
         <v>-261</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>109</v>
+      <c r="D110" s="5">
+        <f>DATE(1996,1,1)</f>
+        <v>35065</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3101,8 +2084,9 @@
       <c r="C111" s="1">
         <v>-283</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>110</v>
+      <c r="D111" s="5">
+        <f>DATE(1996,2,1)</f>
+        <v>35096</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3115,8 +2099,9 @@
       <c r="C112" s="1">
         <v>-321</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>111</v>
+      <c r="D112" s="5">
+        <f>DATE(1996,3,1)</f>
+        <v>35125</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3129,8 +2114,9 @@
       <c r="C113" s="1">
         <v>-328</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>112</v>
+      <c r="D113" s="5">
+        <f>DATE(1996,4,1)</f>
+        <v>35156</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3143,8 +2129,9 @@
       <c r="C114" s="1">
         <v>-333</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>113</v>
+      <c r="D114" s="5">
+        <f>DATE(1996,5,1)</f>
+        <v>35186</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3157,8 +2144,9 @@
       <c r="C115" s="1">
         <v>-345</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>114</v>
+      <c r="D115" s="5">
+        <f>DATE(1996,6,1)</f>
+        <v>35217</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3171,8 +2159,9 @@
       <c r="C116" s="1">
         <v>-353</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>115</v>
+      <c r="D116" s="5">
+        <f>DATE(1996,7,1)</f>
+        <v>35247</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3185,8 +2174,9 @@
       <c r="C117" s="1">
         <v>-359</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>116</v>
+      <c r="D117" s="5">
+        <f>DATE(1996,8,1)</f>
+        <v>35278</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3199,8 +2189,9 @@
       <c r="C118" s="1">
         <v>-259</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>117</v>
+      <c r="D118" s="5">
+        <f>DATE(1996,9,1)</f>
+        <v>35309</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3213,8 +2204,9 @@
       <c r="C119" s="1">
         <v>-42</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>118</v>
+      <c r="D119" s="5">
+        <f>DATE(1996,10,1)</f>
+        <v>35339</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3227,8 +2219,9 @@
       <c r="C120" s="1">
         <v>41</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>119</v>
+      <c r="D120" s="5">
+        <f>DATE(1996,11,1)</f>
+        <v>35370</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3241,8 +2234,9 @@
       <c r="C121" s="1">
         <v>179</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>120</v>
+      <c r="D121" s="5">
+        <f>DATE(1996,12,1)</f>
+        <v>35400</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3255,8 +2249,9 @@
       <c r="C122" s="1">
         <v>154</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>121</v>
+      <c r="D122" s="5">
+        <f>DATE(1997,1,1)</f>
+        <v>35431</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3269,8 +2264,9 @@
       <c r="C123" s="1">
         <v>152</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>122</v>
+      <c r="D123" s="5">
+        <f>DATE(1997,2,1)</f>
+        <v>35462</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3283,8 +2279,9 @@
       <c r="C124" s="1">
         <v>171</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>123</v>
+      <c r="D124" s="5">
+        <f>DATE(1997,3,1)</f>
+        <v>35490</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3297,8 +2294,9 @@
       <c r="C125" s="1">
         <v>180</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>124</v>
+      <c r="D125" s="5">
+        <f>DATE(1997,4,1)</f>
+        <v>35521</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3311,8 +2309,9 @@
       <c r="C126" s="1">
         <v>170</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>125</v>
+      <c r="D126" s="5">
+        <f>DATE(1997,5,1)</f>
+        <v>35551</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3325,8 +2324,9 @@
       <c r="C127" s="1">
         <v>173</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>126</v>
+      <c r="D127" s="5">
+        <f>DATE(1997,6,1)</f>
+        <v>35582</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3339,8 +2339,9 @@
       <c r="C128" s="1">
         <v>125</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>127</v>
+      <c r="D128" s="5">
+        <f>DATE(1997,7,1)</f>
+        <v>35612</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3353,8 +2354,9 @@
       <c r="C129" s="1">
         <v>117</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>128</v>
+      <c r="D129" s="5">
+        <f>DATE(1997,8,1)</f>
+        <v>35643</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3367,8 +2369,9 @@
       <c r="C130" s="1">
         <v>114</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>129</v>
+      <c r="D130" s="5">
+        <f>DATE(1997,9,1)</f>
+        <v>35674</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3381,8 +2384,9 @@
       <c r="C131" s="1">
         <v>32</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>130</v>
+      <c r="D131" s="5">
+        <f>DATE(1997,10,1)</f>
+        <v>35704</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3395,8 +2399,9 @@
       <c r="C132" s="1">
         <v>-104</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>131</v>
+      <c r="D132" s="5">
+        <f>DATE(1997,11,1)</f>
+        <v>35735</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3409,8 +2414,9 @@
       <c r="C133" s="1">
         <v>-200</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>132</v>
+      <c r="D133" s="5">
+        <f>DATE(1997,12,1)</f>
+        <v>35765</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3423,8 +2429,9 @@
       <c r="C134" s="1">
         <v>-235</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>133</v>
+      <c r="D134" s="5">
+        <f>DATE(1998,1,1)</f>
+        <v>35796</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3437,8 +2444,9 @@
       <c r="C135" s="1">
         <v>-267</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>134</v>
+      <c r="D135" s="5">
+        <f>DATE(1998,2,1)</f>
+        <v>35827</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3451,8 +2459,9 @@
       <c r="C136" s="1">
         <v>-310</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>135</v>
+      <c r="D136" s="5">
+        <f>DATE(1998,3,1)</f>
+        <v>35855</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3465,8 +2474,9 @@
       <c r="C137" s="1">
         <v>-303</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>136</v>
+      <c r="D137" s="5">
+        <f>DATE(1998,4,1)</f>
+        <v>35886</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3479,8 +2489,9 @@
       <c r="C138" s="1">
         <v>-303</v>
       </c>
-      <c r="D138" s="1" t="s">
-        <v>137</v>
+      <c r="D138" s="5">
+        <f>DATE(1998,5,1)</f>
+        <v>35916</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3493,8 +2504,9 @@
       <c r="C139" s="1">
         <v>-316</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>138</v>
+      <c r="D139" s="5">
+        <f>DATE(1998,6,1)</f>
+        <v>35947</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3507,8 +2519,9 @@
       <c r="C140" s="1">
         <v>-324</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>139</v>
+      <c r="D140" s="5">
+        <f>DATE(1998,7,1)</f>
+        <v>35977</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3521,8 +2534,9 @@
       <c r="C141" s="1">
         <v>-224</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>140</v>
+      <c r="D141" s="5">
+        <f>DATE(1998,8,1)</f>
+        <v>36008</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3535,8 +2549,9 @@
       <c r="C142" s="1">
         <v>-11</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>141</v>
+      <c r="D142" s="5">
+        <f>DATE(1998,9,1)</f>
+        <v>36039</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3549,8 +2564,9 @@
       <c r="C143" s="1">
         <v>92</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>142</v>
+      <c r="D143" s="5">
+        <f>DATE(1998,10,1)</f>
+        <v>36069</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3563,8 +2579,9 @@
       <c r="C144" s="1">
         <v>162</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>143</v>
+      <c r="D144" s="5">
+        <f>DATE(1998,11,1)</f>
+        <v>36100</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3577,8 +2594,9 @@
       <c r="C145" s="1">
         <v>209</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>144</v>
+      <c r="D145" s="5">
+        <f>DATE(1998,12,1)</f>
+        <v>36130</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3591,8 +2609,9 @@
       <c r="C146" s="1">
         <v>153</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>145</v>
+      <c r="D146" s="5">
+        <f>DATE(1999,1,1)</f>
+        <v>36161</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3605,8 +2624,9 @@
       <c r="C147" s="1">
         <v>199</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>146</v>
+      <c r="D147" s="5">
+        <f>DATE(1999,2,1)</f>
+        <v>36192</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3619,8 +2639,9 @@
       <c r="C148" s="1">
         <v>105</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>147</v>
+      <c r="D148" s="5">
+        <f>DATE(1999,3,1)</f>
+        <v>36220</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3633,8 +2654,9 @@
       <c r="C149" s="1">
         <v>172</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>148</v>
+      <c r="D149" s="5">
+        <f>DATE(1999,4,1)</f>
+        <v>36251</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3647,8 +2669,9 @@
       <c r="C150" s="1">
         <v>129</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>149</v>
+      <c r="D150" s="5">
+        <f>DATE(1999,5,1)</f>
+        <v>36281</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3661,8 +2684,9 @@
       <c r="C151" s="1">
         <v>121</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>150</v>
+      <c r="D151" s="5">
+        <f>DATE(1999,6,1)</f>
+        <v>36312</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3675,8 +2699,9 @@
       <c r="C152" s="1">
         <v>70</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>151</v>
+      <c r="D152" s="5">
+        <f>DATE(1999,7,1)</f>
+        <v>36342</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3689,8 +2714,9 @@
       <c r="C153" s="1">
         <v>65</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>152</v>
+      <c r="D153" s="5">
+        <f>DATE(1999,8,1)</f>
+        <v>36373</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3703,8 +2729,9 @@
       <c r="C154" s="1">
         <v>58</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>153</v>
+      <c r="D154" s="5">
+        <f>DATE(1999,9,1)</f>
+        <v>36404</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3717,8 +2744,9 @@
       <c r="C155" s="1">
         <v>-22</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>154</v>
+      <c r="D155" s="5">
+        <f>DATE(1999,10,1)</f>
+        <v>36434</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3731,8 +2759,9 @@
       <c r="C156" s="1">
         <v>-95</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>155</v>
+      <c r="D156" s="5">
+        <f>DATE(1999,11,1)</f>
+        <v>36465</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3745,8 +2774,9 @@
       <c r="C157" s="1">
         <v>-186</v>
       </c>
-      <c r="D157" s="1" t="s">
-        <v>156</v>
+      <c r="D157" s="5">
+        <f>DATE(1999,12,1)</f>
+        <v>36495</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3759,8 +2789,9 @@
       <c r="C158" s="1">
         <v>-232</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>157</v>
+      <c r="D158" s="5">
+        <f>DATE(2000,1,1)</f>
+        <v>36526</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3773,8 +2804,9 @@
       <c r="C159" s="1">
         <v>-223</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>158</v>
+      <c r="D159" s="5">
+        <f>DATE(2000,2,1)</f>
+        <v>36557</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3787,8 +2819,9 @@
       <c r="C160" s="1">
         <v>-227</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>159</v>
+      <c r="D160" s="5">
+        <f>DATE(2000,3,1)</f>
+        <v>36586</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3801,8 +2834,9 @@
       <c r="C161" s="1">
         <v>-304</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>160</v>
+      <c r="D161" s="5">
+        <f>DATE(2000,4,1)</f>
+        <v>36617</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3815,8 +2849,9 @@
       <c r="C162" s="1">
         <v>-333</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>161</v>
+      <c r="D162" s="5">
+        <f>DATE(2000,5,1)</f>
+        <v>36647</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3829,8 +2864,9 @@
       <c r="C163" s="1">
         <v>-343</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>162</v>
+      <c r="D163" s="5">
+        <f>DATE(2000,6,1)</f>
+        <v>36678</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3843,8 +2879,9 @@
       <c r="C164" s="1">
         <v>-363</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>163</v>
+      <c r="D164" s="5">
+        <f>DATE(2000,7,1)</f>
+        <v>36708</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3857,8 +2894,9 @@
       <c r="C165" s="1">
         <v>-353</v>
       </c>
-      <c r="D165" s="1" t="s">
-        <v>164</v>
+      <c r="D165" s="5">
+        <f>DATE(2000,8,1)</f>
+        <v>36739</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3871,8 +2909,9 @@
       <c r="C166" s="1">
         <v>-357</v>
       </c>
-      <c r="D166" s="1" t="s">
-        <v>165</v>
+      <c r="D166" s="5">
+        <f>DATE(2000,9,1)</f>
+        <v>36770</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3885,8 +2924,9 @@
       <c r="C167" s="1">
         <v>-369</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>166</v>
+      <c r="D167" s="5">
+        <f>DATE(2000,10,1)</f>
+        <v>36800</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3899,8 +2939,9 @@
       <c r="C168" s="1">
         <v>-357</v>
       </c>
-      <c r="D168" s="1" t="s">
-        <v>167</v>
+      <c r="D168" s="5">
+        <f>DATE(2000,11,1)</f>
+        <v>36831</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3913,8 +2954,9 @@
       <c r="C169" s="1">
         <v>-328</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>168</v>
+      <c r="D169" s="5">
+        <f>DATE(2000,12,1)</f>
+        <v>36861</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3927,8 +2969,9 @@
       <c r="C170" s="1">
         <v>-321</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>169</v>
+      <c r="D170" s="5">
+        <f>DATE(2001,1,1)</f>
+        <v>36892</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3941,8 +2984,9 @@
       <c r="C171" s="1">
         <v>-311</v>
       </c>
-      <c r="D171" s="1" t="s">
-        <v>170</v>
+      <c r="D171" s="5">
+        <f>DATE(2001,2,1)</f>
+        <v>36923</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3955,8 +2999,9 @@
       <c r="C172" s="1">
         <v>-322</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>171</v>
+      <c r="D172" s="5">
+        <f>DATE(2001,3,1)</f>
+        <v>36951</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -3969,8 +3014,9 @@
       <c r="C173" s="1">
         <v>-344</v>
       </c>
-      <c r="D173" s="1" t="s">
-        <v>172</v>
+      <c r="D173" s="5">
+        <f>DATE(2001,4,1)</f>
+        <v>36982</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3983,8 +3029,9 @@
       <c r="C174" s="1">
         <v>-352</v>
       </c>
-      <c r="D174" s="1" t="s">
-        <v>173</v>
+      <c r="D174" s="5">
+        <f>DATE(2001,5,1)</f>
+        <v>37012</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -3997,8 +3044,9 @@
       <c r="C175" s="1">
         <v>-255</v>
       </c>
-      <c r="D175" s="1" t="s">
-        <v>174</v>
+      <c r="D175" s="5">
+        <f>DATE(2001,6,1)</f>
+        <v>37043</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4011,8 +3059,9 @@
       <c r="C176" s="1">
         <v>-35</v>
       </c>
-      <c r="D176" s="1" t="s">
-        <v>175</v>
+      <c r="D176" s="5">
+        <f>DATE(2001,7,1)</f>
+        <v>37073</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -4025,8 +3074,9 @@
       <c r="C177" s="1">
         <v>39</v>
       </c>
-      <c r="D177" s="1" t="s">
-        <v>176</v>
+      <c r="D177" s="5">
+        <f>DATE(2001,8,1)</f>
+        <v>37104</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -4039,8 +3089,9 @@
       <c r="C178" s="1">
         <v>74</v>
       </c>
-      <c r="D178" s="1" t="s">
-        <v>177</v>
+      <c r="D178" s="5">
+        <f>DATE(2001,9,1)</f>
+        <v>37135</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -4053,8 +3104,9 @@
       <c r="C179" s="1">
         <v>106</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>178</v>
+      <c r="D179" s="5">
+        <f>DATE(2001,10,1)</f>
+        <v>37165</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4067,8 +3119,9 @@
       <c r="C180" s="1">
         <v>153</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>179</v>
+      <c r="D180" s="5">
+        <f>DATE(2001,11,1)</f>
+        <v>37196</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4081,8 +3134,9 @@
       <c r="C181" s="1">
         <v>211</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>180</v>
+      <c r="D181" s="5">
+        <f>DATE(2001,12,1)</f>
+        <v>37226</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4095,8 +3149,9 @@
       <c r="C182" s="1">
         <v>199</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>181</v>
+      <c r="D182" s="5">
+        <f>DATE(2002,1,1)</f>
+        <v>37257</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4109,8 +3164,9 @@
       <c r="C183" s="1">
         <v>202</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>182</v>
+      <c r="D183" s="5">
+        <f>DATE(2002,2,1)</f>
+        <v>37288</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4123,8 +3179,9 @@
       <c r="C184" s="1">
         <v>213</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>183</v>
+      <c r="D184" s="5">
+        <f>DATE(2002,3,1)</f>
+        <v>37316</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4137,8 +3194,9 @@
       <c r="C185" s="1">
         <v>167</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>184</v>
+      <c r="D185" s="5">
+        <f>DATE(2002,4,1)</f>
+        <v>37347</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4151,8 +3209,9 @@
       <c r="C186" s="1">
         <v>151</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>185</v>
+      <c r="D186" s="5">
+        <f>DATE(2002,5,1)</f>
+        <v>37377</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4165,8 +3224,9 @@
       <c r="C187" s="1">
         <v>52</v>
       </c>
-      <c r="D187" s="1" t="s">
-        <v>186</v>
+      <c r="D187" s="5">
+        <f>DATE(2002,6,1)</f>
+        <v>37408</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4179,8 +3239,9 @@
       <c r="C188" s="1">
         <v>73</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>187</v>
+      <c r="D188" s="5">
+        <f>DATE(2002,7,1)</f>
+        <v>37438</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -4193,8 +3254,9 @@
       <c r="C189" s="1">
         <v>73</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>188</v>
+      <c r="D189" s="5">
+        <f>DATE(2002,8,1)</f>
+        <v>37469</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4207,8 +3269,9 @@
       <c r="C190" s="1">
         <v>66</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>189</v>
+      <c r="D190" s="5">
+        <f>DATE(2002,9,1)</f>
+        <v>37500</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4221,8 +3284,9 @@
       <c r="C191" s="1">
         <v>-13</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>190</v>
+      <c r="D191" s="5">
+        <f>DATE(2002,10,1)</f>
+        <v>37530</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4235,8 +3299,9 @@
       <c r="C192" s="1">
         <v>-118</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>191</v>
+      <c r="D192" s="5">
+        <f>DATE(2002,11,1)</f>
+        <v>37561</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4249,8 +3314,9 @@
       <c r="C193" s="1">
         <v>-198</v>
       </c>
-      <c r="D193" s="1" t="s">
-        <v>192</v>
+      <c r="D193" s="5">
+        <f>DATE(2002,12,1)</f>
+        <v>37591</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4263,8 +3329,9 @@
       <c r="C194" s="1">
         <v>-262</v>
       </c>
-      <c r="D194" s="1" t="s">
-        <v>193</v>
+      <c r="D194" s="5">
+        <f>DATE(2003,1,1)</f>
+        <v>37622</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4277,8 +3344,9 @@
       <c r="C195" s="1">
         <v>-280</v>
       </c>
-      <c r="D195" s="1" t="s">
-        <v>194</v>
+      <c r="D195" s="5">
+        <f>DATE(2003,2,1)</f>
+        <v>37653</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4291,8 +3359,9 @@
       <c r="C196" s="1">
         <v>-290</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>195</v>
+      <c r="D196" s="5">
+        <f>DATE(2003,3,1)</f>
+        <v>37681</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4305,8 +3374,9 @@
       <c r="C197" s="1">
         <v>-295</v>
       </c>
-      <c r="D197" s="1" t="s">
-        <v>196</v>
+      <c r="D197" s="5">
+        <f>DATE(2003,4,1)</f>
+        <v>37712</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4319,8 +3389,9 @@
       <c r="C198" s="1">
         <v>-301</v>
       </c>
-      <c r="D198" s="1" t="s">
-        <v>197</v>
+      <c r="D198" s="5">
+        <f>DATE(2003,5,1)</f>
+        <v>37742</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4333,8 +3404,9 @@
       <c r="C199" s="1">
         <v>-308</v>
       </c>
-      <c r="D199" s="1" t="s">
-        <v>198</v>
+      <c r="D199" s="5">
+        <f>DATE(2003,6,1)</f>
+        <v>37773</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4347,8 +3419,9 @@
       <c r="C200" s="1">
         <v>-329</v>
       </c>
-      <c r="D200" s="1" t="s">
-        <v>199</v>
+      <c r="D200" s="5">
+        <f>DATE(2003,7,1)</f>
+        <v>37803</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4361,8 +3434,9 @@
       <c r="C201" s="1">
         <v>-237</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>200</v>
+      <c r="D201" s="5">
+        <f>DATE(2003,8,1)</f>
+        <v>37834</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4375,8 +3449,9 @@
       <c r="C202" s="1">
         <v>-95</v>
       </c>
-      <c r="D202" s="1" t="s">
-        <v>201</v>
+      <c r="D202" s="5">
+        <f>DATE(2003,9,1)</f>
+        <v>37865</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4389,8 +3464,9 @@
       <c r="C203" s="1">
         <v>-15</v>
       </c>
-      <c r="D203" s="1" t="s">
-        <v>202</v>
+      <c r="D203" s="5">
+        <f>DATE(2003,10,1)</f>
+        <v>37895</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4403,8 +3479,9 @@
       <c r="C204" s="1">
         <v>69</v>
       </c>
-      <c r="D204" s="1" t="s">
-        <v>203</v>
+      <c r="D204" s="5">
+        <f>DATE(2003,11,1)</f>
+        <v>37926</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4417,8 +3494,9 @@
       <c r="C205" s="1">
         <v>165</v>
       </c>
-      <c r="D205" s="1" t="s">
-        <v>204</v>
+      <c r="D205" s="5">
+        <f>DATE(2003,12,1)</f>
+        <v>37956</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4431,8 +3509,9 @@
       <c r="C206" s="1">
         <v>209</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>205</v>
+      <c r="D206" s="5">
+        <f>DATE(2004,1,1)</f>
+        <v>37987</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4445,8 +3524,9 @@
       <c r="C207" s="1">
         <v>153</v>
       </c>
-      <c r="D207" s="1" t="s">
-        <v>206</v>
+      <c r="D207" s="5">
+        <f>DATE(2004,2,1)</f>
+        <v>38018</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4459,8 +3539,9 @@
       <c r="C208" s="1">
         <v>163</v>
       </c>
-      <c r="D208" s="1" t="s">
-        <v>207</v>
+      <c r="D208" s="5">
+        <f>DATE(2004,3,1)</f>
+        <v>38047</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4473,8 +3554,9 @@
       <c r="C209" s="1">
         <v>155</v>
       </c>
-      <c r="D209" s="1" t="s">
-        <v>208</v>
+      <c r="D209" s="5">
+        <f>DATE(2004,4,1)</f>
+        <v>38078</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4487,8 +3569,9 @@
       <c r="C210" s="1">
         <v>145</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>209</v>
+      <c r="D210" s="5">
+        <f>DATE(2004,5,1)</f>
+        <v>38108</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4501,8 +3584,9 @@
       <c r="C211" s="1">
         <v>110</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>210</v>
+      <c r="D211" s="5">
+        <f>DATE(2004,6,1)</f>
+        <v>38139</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4515,8 +3599,9 @@
       <c r="C212" s="1">
         <v>69</v>
       </c>
-      <c r="D212" s="1" t="s">
-        <v>211</v>
+      <c r="D212" s="5">
+        <f>DATE(2004,7,1)</f>
+        <v>38169</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4529,8 +3614,9 @@
       <c r="C213" s="1">
         <v>18</v>
       </c>
-      <c r="D213" s="1" t="s">
-        <v>212</v>
+      <c r="D213" s="5">
+        <f>DATE(2004,8,1)</f>
+        <v>38200</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4543,8 +3629,9 @@
       <c r="C214" s="1">
         <v>-52</v>
       </c>
-      <c r="D214" s="1" t="s">
-        <v>213</v>
+      <c r="D214" s="5">
+        <f>DATE(2004,9,1)</f>
+        <v>38231</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4557,8 +3644,9 @@
       <c r="C215" s="1">
         <v>-98</v>
       </c>
-      <c r="D215" s="1" t="s">
-        <v>214</v>
+      <c r="D215" s="5">
+        <f>DATE(2004,10,1)</f>
+        <v>38261</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -4571,8 +3659,9 @@
       <c r="C216" s="1">
         <v>-198</v>
       </c>
-      <c r="D216" s="1" t="s">
-        <v>215</v>
+      <c r="D216" s="5">
+        <f>DATE(2004,11,1)</f>
+        <v>38292</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -4585,8 +3674,9 @@
       <c r="C217" s="1">
         <v>-247</v>
       </c>
-      <c r="D217" s="1" t="s">
-        <v>216</v>
+      <c r="D217" s="5">
+        <f>DATE(2004,12,1)</f>
+        <v>38322</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4599,8 +3689,9 @@
       <c r="C218" s="1">
         <v>-283</v>
       </c>
-      <c r="D218" s="1" t="s">
-        <v>217</v>
+      <c r="D218" s="5">
+        <f>DATE(2005,1,1)</f>
+        <v>38353</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -4613,8 +3704,9 @@
       <c r="C219" s="1">
         <v>-297</v>
       </c>
-      <c r="D219" s="1" t="s">
-        <v>218</v>
+      <c r="D219" s="5">
+        <f>DATE(2005,2,1)</f>
+        <v>38384</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -4627,8 +3719,9 @@
       <c r="C220" s="1">
         <v>-297</v>
       </c>
-      <c r="D220" s="1" t="s">
-        <v>219</v>
+      <c r="D220" s="5">
+        <f>DATE(2005,3,1)</f>
+        <v>38412</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -4641,8 +3734,9 @@
       <c r="C221" s="1">
         <v>-329</v>
       </c>
-      <c r="D221" s="1" t="s">
-        <v>220</v>
+      <c r="D221" s="5">
+        <f>DATE(2005,4,1)</f>
+        <v>38443</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -4655,8 +3749,9 @@
       <c r="C222" s="1">
         <v>-330</v>
       </c>
-      <c r="D222" s="1" t="s">
-        <v>221</v>
+      <c r="D222" s="5">
+        <f>DATE(2005,5,1)</f>
+        <v>38473</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -4669,8 +3764,9 @@
       <c r="C223" s="1">
         <v>-331</v>
       </c>
-      <c r="D223" s="1" t="s">
-        <v>222</v>
+      <c r="D223" s="5">
+        <f>DATE(2005,6,1)</f>
+        <v>38504</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -4683,8 +3779,9 @@
       <c r="C224" s="1">
         <v>-339</v>
       </c>
-      <c r="D224" s="1" t="s">
-        <v>223</v>
+      <c r="D224" s="5">
+        <f>DATE(2005,7,1)</f>
+        <v>38534</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -4697,8 +3794,9 @@
       <c r="C225" s="1">
         <v>-324</v>
       </c>
-      <c r="D225" s="1" t="s">
-        <v>224</v>
+      <c r="D225" s="5">
+        <f>DATE(2005,8,1)</f>
+        <v>38565</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -4711,8 +3809,9 @@
       <c r="C226" s="1">
         <v>-334</v>
       </c>
-      <c r="D226" s="1" t="s">
-        <v>225</v>
+      <c r="D226" s="5">
+        <f>DATE(2005,9,1)</f>
+        <v>38596</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -4725,8 +3824,9 @@
       <c r="C227" s="1">
         <v>-320</v>
       </c>
-      <c r="D227" s="1" t="s">
-        <v>226</v>
+      <c r="D227" s="5">
+        <f>DATE(2005,10,1)</f>
+        <v>38626</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -4739,8 +3839,9 @@
       <c r="C228" s="1">
         <v>-136</v>
       </c>
-      <c r="D228" s="1" t="s">
-        <v>227</v>
+      <c r="D228" s="5">
+        <f>DATE(2005,11,1)</f>
+        <v>38657</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -4753,8 +3854,9 @@
       <c r="C229" s="1">
         <v>34</v>
       </c>
-      <c r="D229" s="1" t="s">
-        <v>228</v>
+      <c r="D229" s="5">
+        <f>DATE(2005,12,1)</f>
+        <v>38687</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -4767,8 +3869,9 @@
       <c r="C230" s="1">
         <v>94</v>
       </c>
-      <c r="D230" s="1" t="s">
-        <v>229</v>
+      <c r="D230" s="5">
+        <f>DATE(2006,1,1)</f>
+        <v>38718</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -4781,8 +3884,9 @@
       <c r="C231" s="1">
         <v>164</v>
       </c>
-      <c r="D231" s="1" t="s">
-        <v>230</v>
+      <c r="D231" s="5">
+        <f>DATE(2006,2,1)</f>
+        <v>38749</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -4795,8 +3899,9 @@
       <c r="C232" s="1">
         <v>176</v>
       </c>
-      <c r="D232" s="1" t="s">
-        <v>231</v>
+      <c r="D232" s="5">
+        <f>DATE(2006,3,1)</f>
+        <v>38777</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -4809,8 +3914,9 @@
       <c r="C233" s="1">
         <v>126</v>
       </c>
-      <c r="D233" s="1" t="s">
-        <v>232</v>
+      <c r="D233" s="5">
+        <f>DATE(2006,4,1)</f>
+        <v>38808</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -4823,8 +3929,9 @@
       <c r="C234" s="1">
         <v>141</v>
       </c>
-      <c r="D234" s="1" t="s">
-        <v>233</v>
+      <c r="D234" s="5">
+        <f>DATE(2006,5,1)</f>
+        <v>38838</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -4837,8 +3944,9 @@
       <c r="C235" s="1">
         <v>173</v>
       </c>
-      <c r="D235" s="1" t="s">
-        <v>234</v>
+      <c r="D235" s="5">
+        <f>DATE(2006,6,1)</f>
+        <v>38869</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -4851,8 +3959,9 @@
       <c r="C236" s="1">
         <v>131</v>
       </c>
-      <c r="D236" s="1" t="s">
-        <v>235</v>
+      <c r="D236" s="5">
+        <f>DATE(2006,7,1)</f>
+        <v>38899</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -4865,8 +3974,9 @@
       <c r="C237" s="1">
         <v>65</v>
       </c>
-      <c r="D237" s="1" t="s">
-        <v>236</v>
+      <c r="D237" s="5">
+        <f>DATE(2006,8,1)</f>
+        <v>38930</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -4879,8 +3989,9 @@
       <c r="C238" s="1">
         <v>76</v>
       </c>
-      <c r="D238" s="1" t="s">
-        <v>237</v>
+      <c r="D238" s="5">
+        <f>DATE(2006,9,1)</f>
+        <v>38961</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -4893,8 +4004,9 @@
       <c r="C239" s="1">
         <v>14</v>
       </c>
-      <c r="D239" s="1" t="s">
-        <v>238</v>
+      <c r="D239" s="5">
+        <f>DATE(2006,10,1)</f>
+        <v>38991</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -4907,8 +4019,9 @@
       <c r="C240" s="1">
         <v>-123</v>
       </c>
-      <c r="D240" s="1" t="s">
-        <v>239</v>
+      <c r="D240" s="5">
+        <f>DATE(2006,11,1)</f>
+        <v>39022</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -4921,8 +4034,9 @@
       <c r="C241" s="1">
         <v>-210</v>
       </c>
-      <c r="D241" s="1" t="s">
-        <v>240</v>
+      <c r="D241" s="5">
+        <f>DATE(2006,12,1)</f>
+        <v>39052</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -4935,8 +4049,9 @@
       <c r="C242" s="1">
         <v>-231</v>
       </c>
-      <c r="D242" s="1" t="s">
-        <v>241</v>
+      <c r="D242" s="5">
+        <f>DATE(2007,1,1)</f>
+        <v>39083</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -4949,8 +4064,9 @@
       <c r="C243" s="1">
         <v>-226</v>
       </c>
-      <c r="D243" s="1" t="s">
-        <v>242</v>
+      <c r="D243" s="5">
+        <f>DATE(2007,2,1)</f>
+        <v>39114</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -4963,8 +4079,9 @@
       <c r="C244" s="1">
         <v>-250</v>
       </c>
-      <c r="D244" s="1" t="s">
-        <v>243</v>
+      <c r="D244" s="5">
+        <f>DATE(2007,3,1)</f>
+        <v>39142</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -4977,8 +4094,9 @@
       <c r="C245" s="1">
         <v>-278</v>
       </c>
-      <c r="D245" s="1" t="s">
-        <v>244</v>
+      <c r="D245" s="5">
+        <f>DATE(2007,4,1)</f>
+        <v>39173</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -4991,8 +4109,9 @@
       <c r="C246" s="1">
         <v>-304</v>
       </c>
-      <c r="D246" s="1" t="s">
-        <v>245</v>
+      <c r="D246" s="5">
+        <f>DATE(2007,5,1)</f>
+        <v>39203</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -5005,8 +4124,9 @@
       <c r="C247" s="1">
         <v>-318</v>
       </c>
-      <c r="D247" s="1" t="s">
-        <v>246</v>
+      <c r="D247" s="5">
+        <f>DATE(2007,6,1)</f>
+        <v>39234</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -5019,8 +4139,9 @@
       <c r="C248" s="1">
         <v>-324</v>
       </c>
-      <c r="D248" s="1" t="s">
-        <v>247</v>
+      <c r="D248" s="5">
+        <f>DATE(2007,7,1)</f>
+        <v>39264</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -5033,8 +4154,9 @@
       <c r="C249" s="1">
         <v>-333</v>
       </c>
-      <c r="D249" s="1" t="s">
-        <v>248</v>
+      <c r="D249" s="5">
+        <f>DATE(2007,8,1)</f>
+        <v>39295</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -5047,8 +4169,9 @@
       <c r="C250" s="1">
         <v>-343</v>
       </c>
-      <c r="D250" s="1" t="s">
-        <v>249</v>
+      <c r="D250" s="5">
+        <f>DATE(2007,9,1)</f>
+        <v>39326</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -5061,8 +4184,9 @@
       <c r="C251" s="1">
         <v>-319</v>
       </c>
-      <c r="D251" s="1" t="s">
-        <v>250</v>
+      <c r="D251" s="5">
+        <f>DATE(2007,10,1)</f>
+        <v>39356</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -5075,8 +4199,9 @@
       <c r="C252" s="1">
         <v>2</v>
       </c>
-      <c r="D252" s="1" t="s">
-        <v>251</v>
+      <c r="D252" s="5">
+        <f>DATE(2007,11,1)</f>
+        <v>39387</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -5089,8 +4214,9 @@
       <c r="C253" s="1">
         <v>125</v>
       </c>
-      <c r="D253" s="1" t="s">
-        <v>252</v>
+      <c r="D253" s="5">
+        <f>DATE(2007,12,1)</f>
+        <v>39417</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -5103,8 +4229,9 @@
       <c r="C254" s="1">
         <v>118</v>
       </c>
-      <c r="D254" s="1" t="s">
-        <v>253</v>
+      <c r="D254" s="5">
+        <f>DATE(2008,1,1)</f>
+        <v>39448</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -5117,8 +4244,9 @@
       <c r="C255" s="1">
         <v>139</v>
       </c>
-      <c r="D255" s="1" t="s">
-        <v>254</v>
+      <c r="D255" s="5">
+        <f>DATE(2008,2,1)</f>
+        <v>39479</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -5131,8 +4259,9 @@
       <c r="C256" s="1">
         <v>190</v>
       </c>
-      <c r="D256" s="1" t="s">
-        <v>255</v>
+      <c r="D256" s="5">
+        <f>DATE(2008,3,1)</f>
+        <v>39508</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -5145,8 +4274,9 @@
       <c r="C257" s="1">
         <v>169</v>
       </c>
-      <c r="D257" s="1" t="s">
-        <v>256</v>
+      <c r="D257" s="5">
+        <f>DATE(2008,4,1)</f>
+        <v>39539</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -5159,8 +4289,9 @@
       <c r="C258" s="1">
         <v>127</v>
       </c>
-      <c r="D258" s="1" t="s">
-        <v>257</v>
+      <c r="D258" s="5">
+        <f>DATE(2008,5,1)</f>
+        <v>39569</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -5173,8 +4304,9 @@
       <c r="C259" s="1">
         <v>168</v>
       </c>
-      <c r="D259" s="1" t="s">
-        <v>258</v>
+      <c r="D259" s="5">
+        <f>DATE(2008,6,1)</f>
+        <v>39600</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -5187,8 +4319,9 @@
       <c r="C260" s="1">
         <v>142</v>
       </c>
-      <c r="D260" s="1" t="s">
-        <v>259</v>
+      <c r="D260" s="5">
+        <f>DATE(2008,7,1)</f>
+        <v>39630</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -5201,8 +4334,9 @@
       <c r="C261" s="1">
         <v>116</v>
       </c>
-      <c r="D261" s="1" t="s">
-        <v>260</v>
+      <c r="D261" s="5">
+        <f>DATE(2008,8,1)</f>
+        <v>39661</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -5215,8 +4349,9 @@
       <c r="C262" s="1">
         <v>127</v>
       </c>
-      <c r="D262" s="1" t="s">
-        <v>261</v>
+      <c r="D262" s="5">
+        <f>DATE(2008,9,1)</f>
+        <v>39692</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -5229,8 +4364,9 @@
       <c r="C263" s="1">
         <v>54</v>
       </c>
-      <c r="D263" s="1" t="s">
-        <v>262</v>
+      <c r="D263" s="5">
+        <f>DATE(2008,10,1)</f>
+        <v>39722</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -5243,8 +4379,9 @@
       <c r="C264" s="1">
         <v>-52</v>
       </c>
-      <c r="D264" s="1" t="s">
-        <v>263</v>
+      <c r="D264" s="5">
+        <f>DATE(2008,11,1)</f>
+        <v>39753</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -5257,8 +4394,9 @@
       <c r="C265" s="1">
         <v>-82</v>
       </c>
-      <c r="D265" s="1" t="s">
-        <v>264</v>
+      <c r="D265" s="5">
+        <f>DATE(2008,12,1)</f>
+        <v>39783</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -5271,8 +4409,9 @@
       <c r="C266" s="1">
         <v>-49</v>
       </c>
-      <c r="D266" s="1" t="s">
-        <v>265</v>
+      <c r="D266" s="5">
+        <f>DATE(2009,1,1)</f>
+        <v>39814</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -5285,8 +4424,9 @@
       <c r="C267" s="1">
         <v>14</v>
       </c>
-      <c r="D267" s="1" t="s">
-        <v>266</v>
+      <c r="D267" s="5">
+        <f>DATE(2009,2,1)</f>
+        <v>39845</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -5299,8 +4439,9 @@
       <c r="C268" s="1">
         <v>-50</v>
       </c>
-      <c r="D268" s="1" t="s">
-        <v>267</v>
+      <c r="D268" s="5">
+        <f>DATE(2009,3,1)</f>
+        <v>39873</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -5313,8 +4454,9 @@
       <c r="C269" s="1">
         <v>-198</v>
       </c>
-      <c r="D269" s="1" t="s">
-        <v>268</v>
+      <c r="D269" s="5">
+        <f>DATE(2009,4,1)</f>
+        <v>39904</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -5327,8 +4469,9 @@
       <c r="C270" s="1">
         <v>-273</v>
       </c>
-      <c r="D270" s="1" t="s">
-        <v>269</v>
+      <c r="D270" s="5">
+        <f>DATE(2009,5,1)</f>
+        <v>39934</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -5341,8 +4484,9 @@
       <c r="C271" s="1">
         <v>-311</v>
       </c>
-      <c r="D271" s="1" t="s">
-        <v>270</v>
+      <c r="D271" s="5">
+        <f>DATE(2009,6,1)</f>
+        <v>39965</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5355,8 +4499,9 @@
       <c r="C272" s="1">
         <v>-328</v>
       </c>
-      <c r="D272" s="1" t="s">
-        <v>271</v>
+      <c r="D272" s="5">
+        <f>DATE(2009,7,1)</f>
+        <v>39995</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5369,8 +4514,9 @@
       <c r="C273" s="1">
         <v>-335</v>
       </c>
-      <c r="D273" s="1" t="s">
-        <v>272</v>
+      <c r="D273" s="5">
+        <f>DATE(2009,8,1)</f>
+        <v>40026</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -5383,8 +4529,9 @@
       <c r="C274" s="1">
         <v>-347</v>
       </c>
-      <c r="D274" s="1" t="s">
-        <v>273</v>
+      <c r="D274" s="5">
+        <f>DATE(2009,9,1)</f>
+        <v>40057</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -5397,8 +4544,9 @@
       <c r="C275" s="1">
         <v>-353</v>
       </c>
-      <c r="D275" s="1" t="s">
-        <v>274</v>
+      <c r="D275" s="5">
+        <f>DATE(2009,10,1)</f>
+        <v>40087</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -5411,8 +4559,9 @@
       <c r="C276" s="1">
         <v>-328</v>
       </c>
-      <c r="D276" s="1" t="s">
-        <v>275</v>
+      <c r="D276" s="5">
+        <f>DATE(2009,11,1)</f>
+        <v>40118</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -5425,8 +4574,9 @@
       <c r="C277" s="1">
         <v>-335</v>
       </c>
-      <c r="D277" s="1" t="s">
-        <v>276</v>
+      <c r="D277" s="5">
+        <f>DATE(2009,12,1)</f>
+        <v>40148</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -5439,8 +4589,9 @@
       <c r="C278" s="1">
         <v>-330</v>
       </c>
-      <c r="D278" s="1" t="s">
-        <v>277</v>
+      <c r="D278" s="5">
+        <f>DATE(2010,1,1)</f>
+        <v>40179</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -5453,8 +4604,9 @@
       <c r="C279" s="1">
         <v>-309</v>
       </c>
-      <c r="D279" s="1" t="s">
-        <v>278</v>
+      <c r="D279" s="5">
+        <f>DATE(2010,2,1)</f>
+        <v>40210</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -5467,8 +4619,9 @@
       <c r="C280" s="1">
         <v>-317</v>
       </c>
-      <c r="D280" s="1" t="s">
-        <v>279</v>
+      <c r="D280" s="5">
+        <f>DATE(2010,3,1)</f>
+        <v>40238</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -5481,8 +4634,9 @@
       <c r="C281" s="1">
         <v>-326</v>
       </c>
-      <c r="D281" s="1" t="s">
-        <v>280</v>
+      <c r="D281" s="5">
+        <f>DATE(2010,4,1)</f>
+        <v>40269</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5495,8 +4649,9 @@
       <c r="C282" s="1">
         <v>-347</v>
       </c>
-      <c r="D282" s="1" t="s">
-        <v>281</v>
+      <c r="D282" s="5">
+        <f>DATE(2010,5,1)</f>
+        <v>40299</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -5509,8 +4664,9 @@
       <c r="C283" s="1">
         <v>-104</v>
       </c>
-      <c r="D283" s="1" t="s">
-        <v>282</v>
+      <c r="D283" s="5">
+        <f>DATE(2010,6,1)</f>
+        <v>40330</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -5523,8 +4679,9 @@
       <c r="C284" s="1">
         <v>92</v>
       </c>
-      <c r="D284" s="1" t="s">
-        <v>283</v>
+      <c r="D284" s="5">
+        <f>DATE(2010,7,1)</f>
+        <v>40360</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -5537,8 +4694,9 @@
       <c r="C285" s="1">
         <v>111</v>
       </c>
-      <c r="D285" s="1" t="s">
-        <v>284</v>
+      <c r="D285" s="5">
+        <f>DATE(2010,8,1)</f>
+        <v>40391</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -5551,8 +4709,9 @@
       <c r="C286" s="1">
         <v>134</v>
       </c>
-      <c r="D286" s="1" t="s">
-        <v>285</v>
+      <c r="D286" s="5">
+        <f>DATE(2010,9,1)</f>
+        <v>40422</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -5565,8 +4724,9 @@
       <c r="C287" s="1">
         <v>111</v>
       </c>
-      <c r="D287" s="1" t="s">
-        <v>286</v>
+      <c r="D287" s="5">
+        <f>DATE(2010,10,1)</f>
+        <v>40452</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -5579,8 +4739,9 @@
       <c r="C288" s="1">
         <v>116</v>
       </c>
-      <c r="D288" s="1" t="s">
-        <v>287</v>
+      <c r="D288" s="5">
+        <f>DATE(2010,11,1)</f>
+        <v>40483</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -5593,8 +4754,9 @@
       <c r="C289" s="1">
         <v>30</v>
       </c>
-      <c r="D289" s="1" t="s">
-        <v>288</v>
+      <c r="D289" s="5">
+        <f>DATE(2010,12,1)</f>
+        <v>40513</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -5607,8 +4769,9 @@
       <c r="C290" s="1">
         <v>30</v>
       </c>
-      <c r="D290" s="1" t="s">
-        <v>289</v>
+      <c r="D290" s="5">
+        <f>DATE(2011,1,1)</f>
+        <v>40544</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -5621,8 +4784,9 @@
       <c r="C291" s="1">
         <v>75</v>
       </c>
-      <c r="D291" s="1" t="s">
-        <v>290</v>
+      <c r="D291" s="5">
+        <f>DATE(2011,2,1)</f>
+        <v>40575</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -5635,8 +4799,9 @@
       <c r="C292" s="1">
         <v>71</v>
       </c>
-      <c r="D292" s="1" t="s">
-        <v>291</v>
+      <c r="D292" s="5">
+        <f>DATE(2011,3,1)</f>
+        <v>40603</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -5649,8 +4814,9 @@
       <c r="C293" s="1">
         <v>27</v>
       </c>
-      <c r="D293" s="1" t="s">
-        <v>292</v>
+      <c r="D293" s="5">
+        <f>DATE(2011,4,1)</f>
+        <v>40634</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -5663,8 +4829,9 @@
       <c r="C294" s="1">
         <v>-121</v>
       </c>
-      <c r="D294" s="1" t="s">
-        <v>293</v>
+      <c r="D294" s="5">
+        <f>DATE(2011,5,1)</f>
+        <v>40664</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -5677,8 +4844,9 @@
       <c r="C295" s="1">
         <v>-256</v>
       </c>
-      <c r="D295" s="1" t="s">
-        <v>294</v>
+      <c r="D295" s="5">
+        <f>DATE(2011,6,1)</f>
+        <v>40695</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -5691,8 +4859,9 @@
       <c r="C296" s="1">
         <v>-302</v>
       </c>
-      <c r="D296" s="1" t="s">
-        <v>295</v>
+      <c r="D296" s="5">
+        <f>DATE(2011,7,1)</f>
+        <v>40725</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -5705,8 +4874,9 @@
       <c r="C297" s="1">
         <v>-292</v>
       </c>
-      <c r="D297" s="1" t="s">
-        <v>296</v>
+      <c r="D297" s="5">
+        <f>DATE(2011,8,1)</f>
+        <v>40756</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -5719,8 +4889,9 @@
       <c r="C298" s="1">
         <v>-312</v>
       </c>
-      <c r="D298" s="1" t="s">
-        <v>297</v>
+      <c r="D298" s="5">
+        <f>DATE(2011,9,1)</f>
+        <v>40787</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -5733,8 +4904,9 @@
       <c r="C299" s="1">
         <v>-307</v>
       </c>
-      <c r="D299" s="1" t="s">
-        <v>298</v>
+      <c r="D299" s="5">
+        <f>DATE(2011,10,1)</f>
+        <v>40817</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -5747,8 +4919,9 @@
       <c r="C300" s="1">
         <v>-316</v>
       </c>
-      <c r="D300" s="1" t="s">
-        <v>299</v>
+      <c r="D300" s="5">
+        <f>DATE(2011,11,1)</f>
+        <v>40848</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -5761,8 +4934,9 @@
       <c r="C301" s="1">
         <v>-315</v>
       </c>
-      <c r="D301" s="1" t="s">
-        <v>300</v>
+      <c r="D301" s="5">
+        <f>DATE(2011,12,1)</f>
+        <v>40878</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -5775,8 +4949,9 @@
       <c r="C302" s="1">
         <v>-320</v>
       </c>
-      <c r="D302" s="1" t="s">
-        <v>301</v>
+      <c r="D302" s="5">
+        <f>DATE(2012,1,1)</f>
+        <v>40909</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -5789,8 +4964,9 @@
       <c r="C303" s="1">
         <v>-302</v>
       </c>
-      <c r="D303" s="1" t="s">
-        <v>302</v>
+      <c r="D303" s="5">
+        <f>DATE(2012,2,1)</f>
+        <v>40940</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -5803,8 +4979,9 @@
       <c r="C304" s="1">
         <v>-313</v>
       </c>
-      <c r="D304" s="1" t="s">
-        <v>303</v>
+      <c r="D304" s="5">
+        <f>DATE(2012,3,1)</f>
+        <v>40969</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -5817,8 +4994,9 @@
       <c r="C305" s="1">
         <v>-323</v>
       </c>
-      <c r="D305" s="1" t="s">
-        <v>304</v>
+      <c r="D305" s="5">
+        <f>DATE(2012,4,1)</f>
+        <v>41000</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -5831,8 +5009,9 @@
       <c r="C306" s="1">
         <v>-340</v>
       </c>
-      <c r="D306" s="1" t="s">
-        <v>305</v>
+      <c r="D306" s="5">
+        <f>DATE(2012,5,1)</f>
+        <v>41030</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -5845,8 +5024,9 @@
       <c r="C307" s="1">
         <v>-327</v>
       </c>
-      <c r="D307" s="1" t="s">
-        <v>306</v>
+      <c r="D307" s="5">
+        <f>DATE(2012,6,1)</f>
+        <v>41061</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -5859,8 +5039,9 @@
       <c r="C308" s="1">
         <v>-194</v>
       </c>
-      <c r="D308" s="1" t="s">
-        <v>307</v>
+      <c r="D308" s="5">
+        <f>DATE(2012,7,1)</f>
+        <v>41091</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -5873,8 +5054,9 @@
       <c r="C309" s="1">
         <v>-75</v>
       </c>
-      <c r="D309" s="1" t="s">
-        <v>308</v>
+      <c r="D309" s="5">
+        <f>DATE(2012,8,1)</f>
+        <v>41122</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -5887,8 +5069,9 @@
       <c r="C310" s="1">
         <v>-5</v>
       </c>
-      <c r="D310" s="1" t="s">
-        <v>309</v>
+      <c r="D310" s="5">
+        <f>DATE(2012,9,1)</f>
+        <v>41153</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -5901,8 +5084,9 @@
       <c r="C311" s="1">
         <v>10</v>
       </c>
-      <c r="D311" s="1" t="s">
-        <v>310</v>
+      <c r="D311" s="5">
+        <f>DATE(2012,10,1)</f>
+        <v>41183</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -5915,8 +5099,9 @@
       <c r="C312" s="1">
         <v>86</v>
       </c>
-      <c r="D312" s="1" t="s">
-        <v>311</v>
+      <c r="D312" s="5">
+        <f>DATE(2012,11,1)</f>
+        <v>41214</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -5929,8 +5114,9 @@
       <c r="C313" s="1">
         <v>176</v>
       </c>
-      <c r="D313" s="1" t="s">
-        <v>312</v>
+      <c r="D313" s="5">
+        <f>DATE(2012,12,1)</f>
+        <v>41244</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -5943,8 +5129,9 @@
       <c r="C314" s="1">
         <v>155</v>
       </c>
-      <c r="D314" s="1" t="s">
-        <v>313</v>
+      <c r="D314" s="5">
+        <f>DATE(2013,1,1)</f>
+        <v>41275</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -5957,8 +5144,9 @@
       <c r="C315" s="1">
         <v>154</v>
       </c>
-      <c r="D315" s="1" t="s">
-        <v>314</v>
+      <c r="D315" s="5">
+        <f>DATE(2013,2,1)</f>
+        <v>41306</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -5971,8 +5159,9 @@
       <c r="C316" s="1">
         <v>169</v>
       </c>
-      <c r="D316" s="1" t="s">
-        <v>315</v>
+      <c r="D316" s="5">
+        <f>DATE(2013,3,1)</f>
+        <v>41334</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -5985,8 +5174,9 @@
       <c r="C317" s="1">
         <v>165</v>
       </c>
-      <c r="D317" s="1" t="s">
-        <v>316</v>
+      <c r="D317" s="5">
+        <f>DATE(2013,4,1)</f>
+        <v>41365</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -5999,8 +5189,9 @@
       <c r="C318" s="1">
         <v>162</v>
       </c>
-      <c r="D318" s="1" t="s">
-        <v>317</v>
+      <c r="D318" s="5">
+        <f>DATE(2013,5,1)</f>
+        <v>41395</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -6013,8 +5204,9 @@
       <c r="C319" s="1">
         <v>185</v>
       </c>
-      <c r="D319" s="1" t="s">
-        <v>318</v>
+      <c r="D319" s="5">
+        <f>DATE(2013,6,1)</f>
+        <v>41426</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -6027,8 +5219,9 @@
       <c r="C320" s="1">
         <v>144</v>
       </c>
-      <c r="D320" s="1" t="s">
-        <v>319</v>
+      <c r="D320" s="5">
+        <f>DATE(2013,7,1)</f>
+        <v>41456</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -6041,8 +5234,9 @@
       <c r="C321" s="1">
         <v>164</v>
       </c>
-      <c r="D321" s="1" t="s">
-        <v>320</v>
+      <c r="D321" s="5">
+        <f>DATE(2013,8,1)</f>
+        <v>41487</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -6055,8 +5249,9 @@
       <c r="C322" s="1">
         <v>169</v>
       </c>
-      <c r="D322" s="1" t="s">
-        <v>321</v>
+      <c r="D322" s="5">
+        <f>DATE(2013,9,1)</f>
+        <v>41518</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -6069,8 +5264,9 @@
       <c r="C323" s="1">
         <v>124</v>
       </c>
-      <c r="D323" s="1" t="s">
-        <v>322</v>
+      <c r="D323" s="5">
+        <f>DATE(2013,10,1)</f>
+        <v>41548</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -6083,8 +5279,9 @@
       <c r="C324" s="1">
         <v>105</v>
       </c>
-      <c r="D324" s="1" t="s">
-        <v>323</v>
+      <c r="D324" s="5">
+        <f>DATE(2013,11,1)</f>
+        <v>41579</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -6097,8 +5294,9 @@
       <c r="C325" s="1">
         <v>81</v>
       </c>
-      <c r="D325" s="1" t="s">
-        <v>324</v>
+      <c r="D325" s="5">
+        <f>DATE(2013,12,1)</f>
+        <v>41609</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -6111,8 +5309,9 @@
       <c r="C326" s="1">
         <v>85</v>
       </c>
-      <c r="D326" s="1" t="s">
-        <v>325</v>
+      <c r="D326" s="5">
+        <f>DATE(2014,1,1)</f>
+        <v>41640</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -6125,8 +5324,9 @@
       <c r="C327" s="1">
         <v>61</v>
       </c>
-      <c r="D327" s="1" t="s">
-        <v>326</v>
+      <c r="D327" s="5">
+        <f>DATE(2014,2,1)</f>
+        <v>41671</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -6139,8 +5339,9 @@
       <c r="C328" s="1">
         <v>4</v>
       </c>
-      <c r="D328" s="1" t="s">
-        <v>327</v>
+      <c r="D328" s="5">
+        <f>DATE(2014,3,1)</f>
+        <v>41699</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -6153,8 +5354,9 @@
       <c r="C329" s="1">
         <v>-169</v>
       </c>
-      <c r="D329" s="1" t="s">
-        <v>328</v>
+      <c r="D329" s="5">
+        <f>DATE(2014,4,1)</f>
+        <v>41730</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -6167,8 +5369,9 @@
       <c r="C330" s="1">
         <v>-259</v>
       </c>
-      <c r="D330" s="1" t="s">
-        <v>329</v>
+      <c r="D330" s="5">
+        <f>DATE(2014,5,1)</f>
+        <v>41760</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -6181,8 +5384,9 @@
       <c r="C331" s="1">
         <v>-281</v>
       </c>
-      <c r="D331" s="1" t="s">
-        <v>330</v>
+      <c r="D331" s="5">
+        <f>DATE(2014,6,1)</f>
+        <v>41791</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -6195,8 +5399,9 @@
       <c r="C332" s="1">
         <v>-307</v>
       </c>
-      <c r="D332" s="1" t="s">
-        <v>331</v>
+      <c r="D332" s="5">
+        <f>DATE(2014,7,1)</f>
+        <v>41821</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -6209,8 +5414,9 @@
       <c r="C333" s="1">
         <v>-307</v>
       </c>
-      <c r="D333" s="1" t="s">
-        <v>332</v>
+      <c r="D333" s="5">
+        <f>DATE(2014,8,1)</f>
+        <v>41852</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -6223,8 +5429,9 @@
       <c r="C334" s="1">
         <v>-324</v>
       </c>
-      <c r="D334" s="1" t="s">
-        <v>333</v>
+      <c r="D334" s="5">
+        <f>DATE(2014,9,1)</f>
+        <v>41883</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -6237,8 +5444,9 @@
       <c r="C335" s="1">
         <v>-358</v>
       </c>
-      <c r="D335" s="1" t="s">
-        <v>334</v>
+      <c r="D335" s="5">
+        <f>DATE(2014,10,1)</f>
+        <v>41913</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -6251,8 +5459,9 @@
       <c r="C336" s="1">
         <v>-350</v>
       </c>
-      <c r="D336" s="1" t="s">
-        <v>335</v>
+      <c r="D336" s="5">
+        <f>DATE(2014,11,1)</f>
+        <v>41944</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -6265,8 +5474,9 @@
       <c r="C337" s="1">
         <v>-362</v>
       </c>
-      <c r="D337" s="1" t="s">
-        <v>336</v>
+      <c r="D337" s="5">
+        <f>DATE(2014,12,1)</f>
+        <v>41974</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -6279,8 +5489,9 @@
       <c r="C338" s="1">
         <v>-355</v>
       </c>
-      <c r="D338" s="1" t="s">
-        <v>337</v>
+      <c r="D338" s="5">
+        <f>DATE(2015,1,1)</f>
+        <v>42005</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -6293,8 +5504,9 @@
       <c r="C339" s="1">
         <v>-320</v>
       </c>
-      <c r="D339" s="1" t="s">
-        <v>338</v>
+      <c r="D339" s="5">
+        <f>DATE(2015,2,1)</f>
+        <v>42036</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -6307,8 +5519,9 @@
       <c r="C340" s="1">
         <v>-151</v>
       </c>
-      <c r="D340" s="1" t="s">
-        <v>339</v>
+      <c r="D340" s="5">
+        <f>DATE(2015,3,1)</f>
+        <v>42064</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -6321,8 +5534,9 @@
       <c r="C341" s="1">
         <v>3</v>
       </c>
-      <c r="D341" s="1" t="s">
-        <v>340</v>
+      <c r="D341" s="5">
+        <f>DATE(2015,4,1)</f>
+        <v>42095</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -6335,8 +5549,9 @@
       <c r="C342" s="1">
         <v>97</v>
       </c>
-      <c r="D342" s="1" t="s">
-        <v>341</v>
+      <c r="D342" s="5">
+        <f>DATE(2015,5,1)</f>
+        <v>42125</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -6349,8 +5564,9 @@
       <c r="C343" s="1">
         <v>127</v>
       </c>
-      <c r="D343" s="1" t="s">
-        <v>342</v>
+      <c r="D343" s="5">
+        <f>DATE(2015,6,1)</f>
+        <v>42156</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -6363,8 +5579,9 @@
       <c r="C344" s="1">
         <v>170</v>
       </c>
-      <c r="D344" s="1" t="s">
-        <v>343</v>
+      <c r="D344" s="5">
+        <f>DATE(2015,7,1)</f>
+        <v>42186</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -6377,8 +5594,9 @@
       <c r="C345" s="1">
         <v>163</v>
       </c>
-      <c r="D345" s="1" t="s">
-        <v>344</v>
+      <c r="D345" s="5">
+        <f>DATE(2015,8,1)</f>
+        <v>42217</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -6391,8 +5609,9 @@
       <c r="C346" s="1">
         <v>189</v>
       </c>
-      <c r="D346" s="1" t="s">
-        <v>345</v>
+      <c r="D346" s="5">
+        <f>DATE(2015,9,1)</f>
+        <v>42248</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -6405,8 +5624,9 @@
       <c r="C347" s="1">
         <v>133</v>
       </c>
-      <c r="D347" s="1" t="s">
-        <v>346</v>
+      <c r="D347" s="5">
+        <f>DATE(2015,10,1)</f>
+        <v>42278</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -6419,8 +5639,9 @@
       <c r="C348" s="1">
         <v>129</v>
       </c>
-      <c r="D348" s="1" t="s">
-        <v>347</v>
+      <c r="D348" s="5">
+        <f>DATE(2015,11,1)</f>
+        <v>42309</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -6433,8 +5654,9 @@
       <c r="C349" s="1">
         <v>96</v>
       </c>
-      <c r="D349" s="1" t="s">
-        <v>348</v>
+      <c r="D349" s="5">
+        <f>DATE(2015,12,1)</f>
+        <v>42339</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -6447,8 +5669,9 @@
       <c r="C350" s="1">
         <v>91</v>
       </c>
-      <c r="D350" s="1" t="s">
-        <v>349</v>
+      <c r="D350" s="5">
+        <f>DATE(2016,1,1)</f>
+        <v>42370</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -6461,8 +5684,9 @@
       <c r="C351" s="1">
         <v>135</v>
       </c>
-      <c r="D351" s="1" t="s">
-        <v>350</v>
+      <c r="D351" s="5">
+        <f>DATE(2016,2,1)</f>
+        <v>42401</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -6475,8 +5699,9 @@
       <c r="C352" s="1">
         <v>123</v>
       </c>
-      <c r="D352" s="1" t="s">
-        <v>351</v>
+      <c r="D352" s="5">
+        <f>DATE(2016,3,1)</f>
+        <v>42430</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -6489,8 +5714,9 @@
       <c r="C353" s="1">
         <v>115</v>
       </c>
-      <c r="D353" s="1" t="s">
-        <v>352</v>
+      <c r="D353" s="5">
+        <f>DATE(2016,4,1)</f>
+        <v>42461</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -6503,8 +5729,9 @@
       <c r="C354" s="1">
         <v>92</v>
       </c>
-      <c r="D354" s="1" t="s">
-        <v>353</v>
+      <c r="D354" s="5">
+        <f>DATE(2016,5,1)</f>
+        <v>42491</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -6517,8 +5744,9 @@
       <c r="C355" s="1">
         <v>76</v>
       </c>
-      <c r="D355" s="1" t="s">
-        <v>354</v>
+      <c r="D355" s="5">
+        <f>DATE(2016,6,1)</f>
+        <v>42522</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -6531,8 +5759,9 @@
       <c r="C356" s="1">
         <v>90</v>
       </c>
-      <c r="D356" s="1" t="s">
-        <v>355</v>
+      <c r="D356" s="5">
+        <f>DATE(2016,7,1)</f>
+        <v>42552</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -6545,8 +5774,9 @@
       <c r="C357" s="1">
         <v>123</v>
       </c>
-      <c r="D357" s="1" t="s">
-        <v>356</v>
+      <c r="D357" s="5">
+        <f>DATE(2016,8,1)</f>
+        <v>42583</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -6559,8 +5789,9 @@
       <c r="C358" s="1">
         <v>125</v>
       </c>
-      <c r="D358" s="1" t="s">
-        <v>357</v>
+      <c r="D358" s="5">
+        <f>DATE(2016,9,1)</f>
+        <v>42614</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -6573,8 +5804,9 @@
       <c r="C359" s="1">
         <v>141</v>
       </c>
-      <c r="D359" s="1" t="s">
-        <v>358</v>
+      <c r="D359" s="5">
+        <f>DATE(2016,10,1)</f>
+        <v>42644</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -6587,8 +5819,9 @@
       <c r="C360" s="1">
         <v>150</v>
       </c>
-      <c r="D360" s="1" t="s">
-        <v>359</v>
+      <c r="D360" s="5">
+        <f>DATE(2016,11,1)</f>
+        <v>42675</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -6601,8 +5834,9 @@
       <c r="C361" s="1">
         <v>169</v>
       </c>
-      <c r="D361" s="1" t="s">
-        <v>360</v>
+      <c r="D361" s="5">
+        <f>DATE(2016,12,1)</f>
+        <v>42705</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -6615,8 +5849,9 @@
       <c r="C362" s="1">
         <v>142</v>
       </c>
-      <c r="D362" s="1" t="s">
-        <v>361</v>
+      <c r="D362" s="5">
+        <f>DATE(2017,1,1)</f>
+        <v>42736</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -6629,8 +5864,9 @@
       <c r="C363" s="1">
         <v>159</v>
       </c>
-      <c r="D363" s="1" t="s">
-        <v>362</v>
+      <c r="D363" s="5">
+        <f>DATE(2017,2,1)</f>
+        <v>42767</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -6643,8 +5879,9 @@
       <c r="C364" s="1">
         <v>131</v>
       </c>
-      <c r="D364" s="1" t="s">
-        <v>363</v>
+      <c r="D364" s="5">
+        <f>DATE(2017,3,1)</f>
+        <v>42795</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -6657,8 +5894,9 @@
       <c r="C365" s="1">
         <v>52</v>
       </c>
-      <c r="D365" s="1" t="s">
-        <v>364</v>
+      <c r="D365" s="5">
+        <f>DATE(2017,4,1)</f>
+        <v>42826</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -6671,8 +5909,9 @@
       <c r="C366" s="1">
         <v>-207</v>
       </c>
-      <c r="D366" s="1" t="s">
-        <v>365</v>
+      <c r="D366" s="5">
+        <f>DATE(2017,5,1)</f>
+        <v>42856</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -6685,8 +5924,9 @@
       <c r="C367" s="1">
         <v>-287</v>
       </c>
-      <c r="D367" s="1" t="s">
-        <v>366</v>
+      <c r="D367" s="5">
+        <f>DATE(2017,6,1)</f>
+        <v>42887</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -6699,8 +5939,9 @@
       <c r="C368" s="1">
         <v>-310</v>
       </c>
-      <c r="D368" s="1" t="s">
-        <v>367</v>
+      <c r="D368" s="5">
+        <f>DATE(2017,7,1)</f>
+        <v>42917</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -6713,8 +5954,9 @@
       <c r="C369" s="1">
         <v>-329</v>
       </c>
-      <c r="D369" s="1" t="s">
-        <v>368</v>
+      <c r="D369" s="5">
+        <f>DATE(2017,8,1)</f>
+        <v>42948</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -6727,8 +5969,9 @@
       <c r="C370" s="1">
         <v>-347</v>
       </c>
-      <c r="D370" s="1" t="s">
-        <v>369</v>
+      <c r="D370" s="5">
+        <f>DATE(2017,9,1)</f>
+        <v>42979</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -6741,8 +5984,9 @@
       <c r="C371" s="1">
         <v>-375</v>
       </c>
-      <c r="D371" s="1" t="s">
-        <v>370</v>
+      <c r="D371" s="5">
+        <f>DATE(2017,10,1)</f>
+        <v>43009</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -6755,8 +5999,9 @@
       <c r="C372" s="1">
         <v>-356</v>
       </c>
-      <c r="D372" s="1" t="s">
-        <v>371</v>
+      <c r="D372" s="5">
+        <f>DATE(2017,11,1)</f>
+        <v>43040</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -6769,8 +6014,9 @@
       <c r="C373" s="1">
         <v>-329</v>
       </c>
-      <c r="D373" s="1" t="s">
-        <v>372</v>
+      <c r="D373" s="5">
+        <f>DATE(2017,12,1)</f>
+        <v>43070</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -6783,8 +6029,9 @@
       <c r="C374" s="1">
         <v>-338</v>
       </c>
-      <c r="D374" s="1" t="s">
-        <v>373</v>
+      <c r="D374" s="5">
+        <f>DATE(2018,1,1)</f>
+        <v>43101</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -6797,8 +6044,9 @@
       <c r="C375" s="1">
         <v>-327</v>
       </c>
-      <c r="D375" s="1" t="s">
-        <v>374</v>
+      <c r="D375" s="5">
+        <f>DATE(2018,2,1)</f>
+        <v>43132</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -6811,8 +6059,9 @@
       <c r="C376" s="1">
         <v>-342</v>
       </c>
-      <c r="D376" s="1" t="s">
-        <v>375</v>
+      <c r="D376" s="5">
+        <f>DATE(2018,3,1)</f>
+        <v>43160</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -6825,8 +6074,9 @@
       <c r="C377" s="1">
         <v>-347</v>
       </c>
-      <c r="D377" s="1" t="s">
-        <v>376</v>
+      <c r="D377" s="5">
+        <f>DATE(2018,4,1)</f>
+        <v>43191</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -6839,15 +6089,553 @@
       <c r="C378" s="1">
         <v>-349</v>
       </c>
-      <c r="D378" s="1" t="s">
-        <v>377</v>
+      <c r="D378" s="5">
+        <f>DATE(2018,5,1)</f>
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
+        <v>-329</v>
+      </c>
+      <c r="B379" s="1">
+        <v>-350</v>
+      </c>
+      <c r="C379" s="1">
+        <v>-311</v>
+      </c>
+      <c r="D379" s="5">
+        <f>DATE(2018,6,1)</f>
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
+        <v>-330</v>
+      </c>
+      <c r="B380" s="1">
+        <v>-348</v>
+      </c>
+      <c r="C380" s="1">
+        <v>-81</v>
+      </c>
+      <c r="D380" s="5">
+        <f>DATE(2018,7,1)</f>
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
+        <v>-310</v>
+      </c>
+      <c r="B381" s="1">
+        <v>-109</v>
+      </c>
+      <c r="C381" s="1">
+        <v>64</v>
+      </c>
+      <c r="D381" s="5">
+        <f>DATE(2018,8,1)</f>
+        <v>43313</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
+        <v>-109</v>
+      </c>
+      <c r="B382" s="1">
+        <v>47</v>
+      </c>
+      <c r="C382" s="1">
+        <v>131</v>
+      </c>
+      <c r="D382" s="5">
+        <f>DATE(2018,9,1)</f>
+        <v>43344</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
+        <v>44</v>
+      </c>
+      <c r="B383" s="1">
+        <v>117</v>
+      </c>
+      <c r="C383" s="1">
+        <v>135</v>
+      </c>
+      <c r="D383" s="5">
+        <f>DATE(2018,10,1)</f>
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
+        <v>118</v>
+      </c>
+      <c r="B384" s="1">
+        <v>156</v>
+      </c>
+      <c r="C384" s="1">
+        <v>182</v>
+      </c>
+      <c r="D384" s="5">
+        <f>DATE(2018,11,1)</f>
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
+        <v>146</v>
+      </c>
+      <c r="B385" s="1">
+        <v>178</v>
+      </c>
+      <c r="C385" s="1">
+        <v>204</v>
+      </c>
+      <c r="D385" s="5">
+        <f>DATE(2018,12,1)</f>
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" s="1">
+        <v>144</v>
+      </c>
+      <c r="B386" s="1">
+        <v>160</v>
+      </c>
+      <c r="C386" s="1">
+        <v>157</v>
+      </c>
+      <c r="D386" s="5">
+        <f>DATE(2019,1,1)</f>
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" s="1">
+        <v>124</v>
+      </c>
+      <c r="B387" s="1">
+        <v>90</v>
+      </c>
+      <c r="C387" s="1">
+        <v>73</v>
+      </c>
+      <c r="D387" s="5">
+        <f>DATE(2019,2,1)</f>
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" s="1">
+        <v>165</v>
+      </c>
+      <c r="B388" s="1">
+        <v>169</v>
+      </c>
+      <c r="C388" s="1">
+        <v>142</v>
+      </c>
+      <c r="D388" s="5">
+        <f>DATE(2019,3,1)</f>
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" s="1">
+        <v>136</v>
+      </c>
+      <c r="B389" s="1">
+        <v>153</v>
+      </c>
+      <c r="C389" s="1">
+        <v>136</v>
+      </c>
+      <c r="D389" s="5">
+        <f>DATE(2019,4,1)</f>
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="1">
+        <v>148</v>
+      </c>
+      <c r="B390" s="1">
+        <v>166</v>
+      </c>
+      <c r="C390" s="1">
+        <v>142</v>
+      </c>
+      <c r="D390" s="5">
+        <f>DATE(2019,5,1)</f>
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" s="1">
+        <v>125</v>
+      </c>
+      <c r="B391" s="1">
+        <v>123</v>
+      </c>
+      <c r="C391" s="1">
+        <v>90</v>
+      </c>
+      <c r="D391" s="5">
+        <f>DATE(2019,6,1)</f>
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" s="1">
+        <v>114</v>
+      </c>
+      <c r="B392" s="1">
+        <v>120</v>
+      </c>
+      <c r="C392" s="1">
+        <v>35</v>
+      </c>
+      <c r="D392" s="5">
+        <f>DATE(2019,7,1)</f>
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" s="1">
+        <v>105</v>
+      </c>
+      <c r="B393" s="1">
+        <v>80</v>
+      </c>
+      <c r="C393" s="1">
+        <v>11</v>
+      </c>
+      <c r="D393" s="5">
+        <f>DATE(2019,8,1)</f>
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" s="1">
+        <v>95</v>
+      </c>
+      <c r="B394" s="1">
+        <v>85</v>
+      </c>
+      <c r="C394" s="1">
+        <v>13</v>
+      </c>
+      <c r="D394" s="5">
+        <f>DATE(2019,9,1)</f>
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="1">
+        <v>71</v>
+      </c>
+      <c r="B395" s="1">
+        <v>30</v>
+      </c>
+      <c r="C395" s="1">
+        <v>-102</v>
+      </c>
+      <c r="D395" s="5">
+        <f>DATE(2019,10,1)</f>
+        <v>43739</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" s="1">
+        <v>73</v>
+      </c>
+      <c r="B396" s="1">
+        <v>-34</v>
+      </c>
+      <c r="C396" s="1">
+        <v>-192</v>
+      </c>
+      <c r="D396" s="5">
+        <f>DATE(2019,11,1)</f>
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
+        <v>48</v>
+      </c>
+      <c r="B397" s="1">
+        <v>-94</v>
+      </c>
+      <c r="C397" s="1">
+        <v>-250</v>
+      </c>
+      <c r="D397" s="5">
+        <f>DATE(2019,12,1)</f>
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
+        <v>37</v>
+      </c>
+      <c r="B398" s="1">
+        <v>-79</v>
+      </c>
+      <c r="C398" s="1">
+        <v>-262</v>
+      </c>
+      <c r="D398" s="5">
+        <f>DATE(2020,1,1)</f>
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
+        <v>21</v>
+      </c>
+      <c r="B399" s="1">
+        <v>-36</v>
+      </c>
+      <c r="C399" s="1">
+        <v>-220</v>
+      </c>
+      <c r="D399" s="5">
+        <f>DATE(2020,2,1)</f>
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
+        <v>0</v>
+      </c>
+      <c r="B400" s="1">
+        <v>-2</v>
+      </c>
+      <c r="C400" s="1">
+        <v>-158</v>
+      </c>
+      <c r="D400" s="5">
+        <f>DATE(2020,3,1)</f>
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
+        <v>-28</v>
+      </c>
+      <c r="B401" s="1">
+        <v>-12</v>
+      </c>
+      <c r="C401" s="1">
+        <v>-74</v>
+      </c>
+      <c r="D401" s="5">
+        <f>DATE(2020,4,1)</f>
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
+        <v>-17</v>
+      </c>
+      <c r="B402" s="1">
+        <v>15</v>
+      </c>
+      <c r="C402" s="1">
+        <v>-36</v>
+      </c>
+      <c r="D402" s="5">
+        <f>DATE(2020,5,1)</f>
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
+        <v>57</v>
+      </c>
+      <c r="B403" s="1">
+        <v>46</v>
+      </c>
+      <c r="C403" s="1">
+        <v>-3</v>
+      </c>
+      <c r="D403" s="5">
+        <f>DATE(2020,6,1)</f>
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
+        <v>88</v>
+      </c>
+      <c r="B404" s="1">
+        <v>55</v>
+      </c>
+      <c r="C404" s="1">
+        <v>11</v>
+      </c>
+      <c r="D404" s="5">
+        <f>DATE(2020,7,1)</f>
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
+        <v>104</v>
+      </c>
+      <c r="B405" s="1">
+        <v>89</v>
+      </c>
+      <c r="C405" s="1">
+        <v>43</v>
+      </c>
+      <c r="D405" s="5">
+        <f>DATE(2020,8,1)</f>
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
+        <v>120</v>
+      </c>
+      <c r="B406" s="1">
+        <v>110</v>
+      </c>
+      <c r="C406" s="1">
+        <v>87</v>
+      </c>
+      <c r="D406" s="5">
+        <f>DATE(2020,9,1)</f>
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" s="1">
+        <v>135</v>
+      </c>
+      <c r="B407" s="1">
+        <v>110</v>
+      </c>
+      <c r="C407" s="1">
+        <v>108</v>
+      </c>
+      <c r="D407" s="5">
+        <f>DATE(2020,10,1)</f>
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" s="1">
+        <v>144</v>
+      </c>
+      <c r="B408" s="1">
+        <v>117</v>
+      </c>
+      <c r="C408" s="1">
+        <v>60</v>
+      </c>
+      <c r="D408" s="5">
+        <f>DATE(2020,11,1)</f>
+        <v>44136</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" s="1">
+        <v>104</v>
+      </c>
+      <c r="B409" s="1">
+        <v>90</v>
+      </c>
+      <c r="C409" s="1">
+        <v>22</v>
+      </c>
+      <c r="D409" s="5">
+        <f>DATE(2020,12,1)</f>
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" s="1">
+        <v>72</v>
+      </c>
+      <c r="B410" s="1">
+        <v>71</v>
+      </c>
+      <c r="C410" s="1">
+        <v>11</v>
+      </c>
+      <c r="D410" s="5">
+        <f>DATE(2021,1,1)</f>
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" s="1">
+        <v>65</v>
+      </c>
+      <c r="B411" s="1">
+        <v>81</v>
+      </c>
+      <c r="C411" s="1">
+        <v>9</v>
+      </c>
+      <c r="D411" s="5">
+        <f>DATE(2021,2,1)</f>
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" s="1">
+        <v>79</v>
+      </c>
+      <c r="B412" s="1">
+        <v>76</v>
+      </c>
+      <c r="C412" s="1">
+        <v>-23</v>
+      </c>
+      <c r="D412" s="5">
+        <f>DATE(2021,3,1)</f>
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" s="1">
+        <v>64</v>
+      </c>
+      <c r="B413" s="1">
+        <v>-40</v>
+      </c>
+      <c r="C413" s="1">
+        <v>-179</v>
+      </c>
+      <c r="D413" s="5">
+        <f>DATE(2021,4,1)</f>
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" s="1">
+        <v>-37</v>
+      </c>
+      <c r="B414" s="1">
+        <v>-167</v>
+      </c>
+      <c r="C414" s="1">
+        <v>-261</v>
+      </c>
+      <c r="D414" s="5">
+        <f>DATE(2021,5,1)</f>
+        <v>44317</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="D9 D2" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/QBO Data (2).xlsx
+++ b/QBO Data (2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37a0ce551f5721cc/Documents/Coding TA/Uji Coba TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_5C01B3BFD3505B2853DA2511595ED87656CC0979" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{058491C5-2934-4700-A77F-7A33A5862A1E}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_5C01B3BFD3505B2853DA2511595ED87656CC0979" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEFC0801-A30A-473A-9415-739EDCEBD96C}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="2805" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -33,12 +33,15 @@
   <si>
     <t>20 hPa</t>
   </si>
+  <si>
+    <t>QBO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,12 +53,18 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -109,6 +118,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -412,20 +424,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D414"/>
+  <dimension ref="A1:E420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="A410" sqref="A410:D414"/>
+    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="G409" sqref="G409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -438,8 +450,11 @@
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>-260</v>
       </c>
@@ -453,8 +468,11 @@
         <f>DATE(1987,1,1)</f>
         <v>31778</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>-1.088991883035717</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>-266</v>
       </c>
@@ -468,8 +486,11 @@
         <f>DATE(1987,2,1)</f>
         <v>31809</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>-1.042609145977452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>-271</v>
       </c>
@@ -483,8 +504,11 @@
         <f>DATE(1987,3,1)</f>
         <v>31837</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>-1.192064632054086</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>-270</v>
       </c>
@@ -498,8 +522,11 @@
         <f>DATE(1987,4,1)</f>
         <v>31868</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>-1.1611428073485759</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>-268</v>
       </c>
@@ -513,8 +540,11 @@
         <f>DATE(1987,5,1)</f>
         <v>31898</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>-1.088991883035717</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>-247</v>
       </c>
@@ -528,8 +558,11 @@
         <f>DATE(1987,6,1)</f>
         <v>31929</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>-0.38294355225989168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>-63</v>
       </c>
@@ -543,8 +576,11 @@
         <f>DATE(1987,7,1)</f>
         <v>31959</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0.50863572674899793</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>92</v>
       </c>
@@ -558,8 +594,11 @@
         <f>DATE(1987,8,1)</f>
         <v>31990</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0.97761673478257571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>138</v>
       </c>
@@ -573,8 +612,11 @@
         <f>DATE(1987,9,1)</f>
         <v>32021</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>1.2507595196812531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>117</v>
       </c>
@@ -588,8 +630,11 @@
         <f>DATE(1987,10,1)</f>
         <v>32051</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>1.060074933997271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>77</v>
       </c>
@@ -603,8 +648,11 @@
         <f>DATE(1987,11,1)</f>
         <v>32082</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>0.87969762321512546</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>57</v>
       </c>
@@ -618,8 +666,11 @@
         <f>DATE(1987,12,1)</f>
         <v>32112</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>0.6993203124329801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>54</v>
       </c>
@@ -633,8 +684,11 @@
         <f>DATE(1988,1,1)</f>
         <v>32143</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>0.70962758733481701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>46</v>
       </c>
@@ -648,8 +702,11 @@
         <f>DATE(1988,2,1)</f>
         <v>32174</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>0.55501846380726383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>78</v>
       </c>
@@ -663,8 +720,11 @@
         <f>DATE(1988,3,1)</f>
         <v>32203</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>0.60140120086552973</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>70</v>
       </c>
@@ -678,8 +738,11 @@
         <f>DATE(1988,4,1)</f>
         <v>32234</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>0.47256026459256878</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>50</v>
       </c>
@@ -693,8 +756,11 @@
         <f>DATE(1988,5,1)</f>
         <v>32264</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>7.573018087184917E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>-23</v>
       </c>
@@ -708,8 +774,11 @@
         <f>DATE(1988,6,1)</f>
         <v>32295</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>-0.65093269970765044</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>-102</v>
       </c>
@@ -723,8 +792,11 @@
         <f>DATE(1988,7,1)</f>
         <v>32325</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>-0.89315365990081697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>-63</v>
       </c>
@@ -738,8 +810,11 @@
         <f>DATE(1988,8,1)</f>
         <v>32356</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>-0.75400544872601916</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>-50</v>
       </c>
@@ -753,8 +828,11 @@
         <f>DATE(1988,9,1)</f>
         <v>32387</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>-0.71792998656959006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>-81</v>
       </c>
@@ -768,8 +846,11 @@
         <f>DATE(1988,10,1)</f>
         <v>32417</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>-0.79008091088244825</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>-101</v>
       </c>
@@ -783,8 +864,11 @@
         <f>DATE(1988,11,1)</f>
         <v>32448</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>-0.7952345483333666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>-99</v>
       </c>
@@ -798,8 +882,11 @@
         <f>DATE(1988,12,1)</f>
         <v>32478</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>-0.87769274754806159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>-84</v>
       </c>
@@ -813,8 +900,11 @@
         <f>DATE(1989,1,1)</f>
         <v>32509</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>-0.94469003441000132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>-40</v>
       </c>
@@ -828,8 +918,11 @@
         <f>DATE(1989,2,1)</f>
         <v>32540</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>-0.6560863371585689</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>-38</v>
       </c>
@@ -843,8 +936,11 @@
         <f>DATE(1989,3,1)</f>
         <v>32568</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>-0.54785995068928173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>-150</v>
       </c>
@@ -858,8 +954,11 @@
         <f>DATE(1989,4,1)</f>
         <v>32599</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>-1.0735309706829621</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>-250</v>
       </c>
@@ -873,8 +972,11 @@
         <f>DATE(1989,5,1)</f>
         <v>32629</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>-1.192064632054086</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>-281</v>
       </c>
@@ -888,8 +990,11 @@
         <f>DATE(1989,6,1)</f>
         <v>32660</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>-1.2745228312687811</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>-306</v>
       </c>
@@ -903,8 +1008,11 @@
         <f>DATE(1989,7,1)</f>
         <v>32690</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>-1.4755146918546</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>-300</v>
       </c>
@@ -918,8 +1026,11 @@
         <f>DATE(1989,8,1)</f>
         <v>32721</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>-1.2693691938178631</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>-310</v>
       </c>
@@ -933,8 +1044,11 @@
         <f>DATE(1989,9,1)</f>
         <v>32752</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>-1.228140094210515</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>-307</v>
       </c>
@@ -948,8 +1062,11 @@
         <f>DATE(1989,10,1)</f>
         <v>32782</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>-1.2023719069559231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>-306</v>
       </c>
@@ -963,8 +1080,11 @@
         <f>DATE(1989,11,1)</f>
         <v>32813</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>-1.1302209826430649</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>-282</v>
       </c>
@@ -978,8 +1098,11 @@
         <f>DATE(1989,12,1)</f>
         <v>32843</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>-0.35717536500529962</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>-42</v>
       </c>
@@ -993,8 +1116,11 @@
         <f>DATE(1990,1,1)</f>
         <v>32874</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>0.73024213713849073</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>-32</v>
       </c>
@@ -1008,8 +1134,11 @@
         <f>DATE(1990,2,1)</f>
         <v>32905</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>0.80754669890226738</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>109</v>
       </c>
@@ -1023,8 +1152,11 @@
         <f>DATE(1990,3,1)</f>
         <v>32933</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>1.3126031690922739</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>124</v>
       </c>
@@ -1038,8 +1170,11 @@
         <f>DATE(1990,4,1)</f>
         <v>32964</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>1.1837622328193129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>124</v>
       </c>
@@ -1053,8 +1188,11 @@
         <f>DATE(1990,5,1)</f>
         <v>32994</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>1.224991332426661</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>152</v>
       </c>
@@ -1068,8 +1206,11 @@
         <f>DATE(1990,6,1)</f>
         <v>33025</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>1.353832268699622</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>131</v>
       </c>
@@ -1083,8 +1224,11 @@
         <f>DATE(1990,7,1)</f>
         <v>33055</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>1.2146840575248239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>135</v>
       </c>
@@ -1098,8 +1242,11 @@
         <f>DATE(1990,8,1)</f>
         <v>33086</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>1.1940695077211501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>130</v>
       </c>
@@ -1113,8 +1260,11 @@
         <f>DATE(1990,9,1)</f>
         <v>33117</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>1.0909967587027809</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>109</v>
       </c>
@@ -1128,8 +1278,11 @@
         <f>DATE(1990,10,1)</f>
         <v>33147</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>1.0136921969390049</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>110</v>
       </c>
@@ -1143,8 +1296,11 @@
         <f>DATE(1990,11,1)</f>
         <v>33178</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>0.96730945988073891</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>134</v>
       </c>
@@ -1158,8 +1314,11 @@
         <f>DATE(1990,12,1)</f>
         <v>33208</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>0.86423671086237008</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>114</v>
       </c>
@@ -1173,8 +1332,11 @@
         <f>DATE(1991,1,1)</f>
         <v>33239</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>0.8281612487059411</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>127</v>
       </c>
@@ -1188,8 +1350,11 @@
         <f>DATE(1991,2,1)</f>
         <v>33270</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>0.98277037223349417</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>105</v>
       </c>
@@ -1203,8 +1368,11 @@
         <f>DATE(1991,3,1)</f>
         <v>33298</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>0.93123399772430981</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>92</v>
       </c>
@@ -1218,8 +1386,11 @@
         <f>DATE(1991,4,1)</f>
         <v>33329</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>0.26641476655583141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>-67</v>
       </c>
@@ -1233,8 +1404,11 @@
         <f>DATE(1991,5,1)</f>
         <v>33359</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>-0.7024690742168348</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>-209</v>
       </c>
@@ -1248,8 +1422,11 @@
         <f>DATE(1991,6,1)</f>
         <v>33390</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>-1.021994596173778</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>-250</v>
       </c>
@@ -1263,8 +1440,11 @@
         <f>DATE(1991,7,1)</f>
         <v>33420</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>-0.99107277146826722</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>-231</v>
       </c>
@@ -1278,8 +1458,11 @@
         <f>DATE(1991,8,1)</f>
         <v>33451</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>-1.135374620093984</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>-215</v>
       </c>
@@ -1293,8 +1476,11 @@
         <f>DATE(1991,9,1)</f>
         <v>33482</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>-0.96530458421367504</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>-222</v>
       </c>
@@ -1308,8 +1494,11 @@
         <f>DATE(1991,10,1)</f>
         <v>33512</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>-0.88800002244989851</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>-242</v>
       </c>
@@ -1323,8 +1512,11 @@
         <f>DATE(1991,11,1)</f>
         <v>33543</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>-0.84677092284255095</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>-253</v>
       </c>
@@ -1338,8 +1530,11 @@
         <f>DATE(1991,12,1)</f>
         <v>33573</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>-1.135374620093984</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>-253</v>
       </c>
@@ -1353,8 +1548,11 @@
         <f>DATE(1992,1,1)</f>
         <v>33604</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>-1.0323018710756151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>-254</v>
       </c>
@@ -1368,8 +1566,11 @@
         <f>DATE(1992,2,1)</f>
         <v>33635</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>-1.058070058330207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>-260</v>
       </c>
@@ -1383,8 +1584,11 @@
         <f>DATE(1992,3,1)</f>
         <v>33664</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>-1.0529164208792881</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>-262</v>
       </c>
@@ -1398,8 +1602,11 @@
         <f>DATE(1992,4,1)</f>
         <v>33695</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <v>-1.083838245584799</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>-275</v>
       </c>
@@ -1413,8 +1620,11 @@
         <f>DATE(1992,5,1)</f>
         <v>33725</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>-1.0941455204866359</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>-268</v>
       </c>
@@ -1428,8 +1638,11 @@
         <f>DATE(1992,6,1)</f>
         <v>33756</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <v>0.25095385420307598</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>-79</v>
       </c>
@@ -1443,8 +1656,11 @@
         <f>DATE(1992,7,1)</f>
         <v>33786</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <v>0.70962758733481701</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>8</v>
       </c>
@@ -1458,8 +1674,11 @@
         <f>DATE(1992,8,1)</f>
         <v>33817</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <v>0.94669491007706508</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>75</v>
       </c>
@@ -1473,8 +1692,11 @@
         <f>DATE(1992,9,1)</f>
         <v>33848</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>1.0136921969390049</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>112</v>
       </c>
@@ -1488,8 +1710,11 @@
         <f>DATE(1992,10,1)</f>
         <v>33878</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <v>1.240452244779416</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>141</v>
       </c>
@@ -1503,8 +1728,11 @@
         <f>DATE(1992,11,1)</f>
         <v>33909</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <v>1.2765277069358449</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>176</v>
       </c>
@@ -1518,8 +1746,11 @@
         <f>DATE(1992,12,1)</f>
         <v>33939</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>1.410522280659724</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>155</v>
       </c>
@@ -1533,8 +1764,11 @@
         <f>DATE(1993,1,1)</f>
         <v>33970</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <v>1.3126031690922739</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>164</v>
       </c>
@@ -1548,8 +1782,11 @@
         <f>DATE(1993,2,1)</f>
         <v>34001</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <v>1.3796004559542141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>170</v>
       </c>
@@ -1563,8 +1800,11 @@
         <f>DATE(1993,3,1)</f>
         <v>34029</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <v>1.389907730856051</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>112</v>
       </c>
@@ -1578,8 +1818,11 @@
         <f>DATE(1993,4,1)</f>
         <v>34060</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <v>0.81270033635318573</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>108</v>
       </c>
@@ -1593,8 +1836,11 @@
         <f>DATE(1993,5,1)</f>
         <v>34090</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <v>0.69416667498206175</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>48</v>
       </c>
@@ -1608,8 +1854,11 @@
         <f>DATE(1993,6,1)</f>
         <v>34121</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>0.1736492924392995</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>-10</v>
       </c>
@@ -1623,8 +1872,11 @@
         <f>DATE(1993,7,1)</f>
         <v>34151</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <v>-0.56332086304203699</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>-8</v>
       </c>
@@ -1638,8 +1890,11 @@
         <f>DATE(1993,8,1)</f>
         <v>34182</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <v>-0.50663085108193417</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>-44</v>
       </c>
@@ -1653,8 +1908,11 @@
         <f>DATE(1993,9,1)</f>
         <v>34213</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <v>-0.60454996264938454</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>-111</v>
       </c>
@@ -1668,8 +1926,11 @@
         <f>DATE(1993,10,1)</f>
         <v>34243</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <v>-0.90346093480265377</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>-205</v>
       </c>
@@ -1683,8 +1944,11 @@
         <f>DATE(1993,11,1)</f>
         <v>34274</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <v>-0.93953639695908286</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>-240</v>
       </c>
@@ -1698,8 +1962,11 @@
         <f>DATE(1993,12,1)</f>
         <v>34304</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <v>-1.1302209826430649</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>-251</v>
       </c>
@@ -1713,8 +1980,11 @@
         <f>DATE(1994,1,1)</f>
         <v>34335</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>-1.3105982934252101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>-265</v>
       </c>
@@ -1728,8 +1998,11 @@
         <f>DATE(1994,2,1)</f>
         <v>34366</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <v>-1.150835532446739</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>-291</v>
       </c>
@@ -1743,8 +2016,11 @@
         <f>DATE(1994,3,1)</f>
         <v>34394</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <v>-1.228140094210515</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>-298</v>
       </c>
@@ -1758,8 +2034,11 @@
         <f>DATE(1994,4,1)</f>
         <v>34425</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <v>-1.2229864567595969</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>-318</v>
       </c>
@@ -1773,8 +2052,11 @@
         <f>DATE(1994,5,1)</f>
         <v>34455</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <v>-1.2796764687197</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>-328</v>
       </c>
@@ -1788,8 +2070,11 @@
         <f>DATE(1994,6,1)</f>
         <v>34486</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <v>-1.356981030483476</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>-338</v>
       </c>
@@ -1803,8 +2088,11 @@
         <f>DATE(1994,7,1)</f>
         <v>34516</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <v>-1.3982101300908241</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>-336</v>
       </c>
@@ -1818,8 +2106,11 @@
         <f>DATE(1994,8,1)</f>
         <v>34547</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <v>-0.95499730931183824</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>-271</v>
       </c>
@@ -1833,8 +2124,11 @@
         <f>DATE(1994,9,1)</f>
         <v>34578</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <v>0.10665200557735981</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>-9</v>
       </c>
@@ -1848,8 +2142,11 @@
         <f>DATE(1994,10,1)</f>
         <v>34608</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <v>0.84877579850961482</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>109</v>
       </c>
@@ -1863,8 +2160,11 @@
         <f>DATE(1994,11,1)</f>
         <v>34639</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <v>1.137379495761047</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>167</v>
       </c>
@@ -1878,8 +2178,11 @@
         <f>DATE(1994,12,1)</f>
         <v>34669</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <v>1.333217718895948</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>178</v>
       </c>
@@ -1893,8 +2196,11 @@
         <f>DATE(1995,1,1)</f>
         <v>34700</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <v>1.35898590615054</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>115</v>
       </c>
@@ -1908,8 +2214,11 @@
         <f>DATE(1995,2,1)</f>
         <v>34731</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <v>1.003384922037168</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>86</v>
       </c>
@@ -1923,8 +2232,11 @@
         <f>DATE(1995,3,1)</f>
         <v>34759</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <v>0.98792400968441263</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>110</v>
       </c>
@@ -1938,8 +2250,11 @@
         <f>DATE(1995,4,1)</f>
         <v>34790</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <v>1.1579940455647211</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>155</v>
       </c>
@@ -1953,8 +2268,11 @@
         <f>DATE(1995,5,1)</f>
         <v>34820</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <v>1.240452244779416</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>151</v>
       </c>
@@ -1968,8 +2286,11 @@
         <f>DATE(1995,6,1)</f>
         <v>34851</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <v>1.204376782622987</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>125</v>
       </c>
@@ -1983,8 +2304,11 @@
         <f>DATE(1995,7,1)</f>
         <v>34881</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <v>0.94669491007706508</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>72</v>
       </c>
@@ -1998,8 +2322,11 @@
         <f>DATE(1995,8,1)</f>
         <v>34912</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <v>0.69416667498206175</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>34</v>
       </c>
@@ -2013,8 +2340,11 @@
         <f>DATE(1995,9,1)</f>
         <v>34943</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <v>0.34887296577052629</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>-32</v>
       </c>
@@ -2028,8 +2358,11 @@
         <f>DATE(1995,10,1)</f>
         <v>34973</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <v>-0.1716444167722358</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>-131</v>
       </c>
@@ -2043,8 +2376,11 @@
         <f>DATE(1995,11,1)</f>
         <v>35004</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <v>-0.54270631323836327</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>-169</v>
       </c>
@@ -2058,8 +2394,11 @@
         <f>DATE(1995,12,1)</f>
         <v>35034</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <v>-0.76431272362785596</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>-183</v>
       </c>
@@ -2073,8 +2412,11 @@
         <f>DATE(1996,1,1)</f>
         <v>35065</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <v>-0.9240754846063276</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>-202</v>
       </c>
@@ -2088,8 +2430,11 @@
         <f>DATE(1996,2,1)</f>
         <v>35096</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <v>-1.099299157937554</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>-239</v>
       </c>
@@ -2103,8 +2448,11 @@
         <f>DATE(1996,3,1)</f>
         <v>35125</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <v>-1.1096064328393911</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>-277</v>
       </c>
@@ -2118,8 +2466,11 @@
         <f>DATE(1996,4,1)</f>
         <v>35156</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <v>-1.1662964447994939</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>-307</v>
       </c>
@@ -2133,8 +2484,11 @@
         <f>DATE(1996,5,1)</f>
         <v>35186</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <v>-1.2229864567595969</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>-330</v>
       </c>
@@ -2148,8 +2502,11 @@
         <f>DATE(1996,6,1)</f>
         <v>35217</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <v>-1.3312128432288839</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>-325</v>
       </c>
@@ -2163,8 +2520,11 @@
         <f>DATE(1996,7,1)</f>
         <v>35247</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <v>-1.341520118130721</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>-346</v>
       </c>
@@ -2178,8 +2538,11 @@
         <f>DATE(1996,8,1)</f>
         <v>35278</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <v>-1.4033637675417421</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>-355</v>
       </c>
@@ -2193,8 +2556,11 @@
         <f>DATE(1996,9,1)</f>
         <v>35309</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <v>-1.408517404992661</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>-349</v>
       </c>
@@ -2208,8 +2574,11 @@
         <f>DATE(1996,10,1)</f>
         <v>35339</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <v>-1.099299157937554</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>-284</v>
       </c>
@@ -2223,8 +2592,11 @@
         <f>DATE(1996,11,1)</f>
         <v>35370</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <v>0.15818838008654421</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>-56</v>
       </c>
@@ -2238,8 +2610,11 @@
         <f>DATE(1996,12,1)</f>
         <v>35400</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <v>0.82300761125502264</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>22</v>
       </c>
@@ -2253,8 +2628,11 @@
         <f>DATE(1997,1,1)</f>
         <v>35431</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <v>0.9209267228224729</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>100</v>
       </c>
@@ -2268,8 +2646,11 @@
         <f>DATE(1997,2,1)</f>
         <v>35462</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <v>1.008538559488086</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>106</v>
       </c>
@@ -2283,8 +2664,11 @@
         <f>DATE(1997,3,1)</f>
         <v>35490</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <v>1.0858431212518631</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>151</v>
       </c>
@@ -2298,8 +2682,11 @@
         <f>DATE(1997,4,1)</f>
         <v>35521</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <v>1.2816813443867641</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>151</v>
       </c>
@@ -2313,8 +2700,11 @@
         <f>DATE(1997,5,1)</f>
         <v>35551</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126">
+        <v>1.230144969877579</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>167</v>
       </c>
@@ -2328,8 +2718,11 @@
         <f>DATE(1997,6,1)</f>
         <v>35582</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127">
+        <v>1.297142256739519</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>141</v>
       </c>
@@ -2343,8 +2736,11 @@
         <f>DATE(1997,7,1)</f>
         <v>35612</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128">
+        <v>1.168301320466558</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>114</v>
       </c>
@@ -2358,8 +2754,11 @@
         <f>DATE(1997,8,1)</f>
         <v>35643</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129">
+        <v>1.0549212965463519</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>97</v>
       </c>
@@ -2373,8 +2772,11 @@
         <f>DATE(1997,9,1)</f>
         <v>35674</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <v>0.87969762321512546</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>75</v>
       </c>
@@ -2388,8 +2790,11 @@
         <f>DATE(1997,10,1)</f>
         <v>35704</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131">
+        <v>0.49832845184716101</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>15</v>
       </c>
@@ -2403,8 +2808,11 @@
         <f>DATE(1997,11,1)</f>
         <v>35735</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132">
+        <v>-8.4032580106622373E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>-49</v>
       </c>
@@ -2418,8 +2826,11 @@
         <f>DATE(1997,12,1)</f>
         <v>35765</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133">
+        <v>-0.3880971897108102</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>-50</v>
       </c>
@@ -2433,8 +2844,11 @@
         <f>DATE(1998,1,1)</f>
         <v>35796</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134">
+        <v>-0.70762271166775326</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>-57</v>
       </c>
@@ -2448,8 +2862,11 @@
         <f>DATE(1998,2,1)</f>
         <v>35827</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135">
+        <v>-0.82615637303887723</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>-127</v>
       </c>
@@ -2463,8 +2880,11 @@
         <f>DATE(1998,3,1)</f>
         <v>35855</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136">
+        <v>-0.95499730931183824</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>-253</v>
       </c>
@@ -2478,8 +2898,11 @@
         <f>DATE(1998,4,1)</f>
         <v>35886</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137">
+        <v>-1.088991883035717</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>-280</v>
       </c>
@@ -2493,8 +2916,11 @@
         <f>DATE(1998,5,1)</f>
         <v>35916</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138">
+        <v>-1.11476007029031</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>-297</v>
       </c>
@@ -2508,8 +2934,11 @@
         <f>DATE(1998,6,1)</f>
         <v>35947</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139">
+        <v>-1.1817573571522491</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>-308</v>
       </c>
@@ -2523,8 +2952,11 @@
         <f>DATE(1998,7,1)</f>
         <v>35977</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140">
+        <v>-1.1817573571522491</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>-321</v>
       </c>
@@ -2538,8 +2970,11 @@
         <f>DATE(1998,8,1)</f>
         <v>36008</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141">
+        <v>-1.2332937316614341</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>-311</v>
       </c>
@@ -2553,8 +2988,11 @@
         <f>DATE(1998,9,1)</f>
         <v>36039</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142">
+        <v>-0.93438275950816441</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>-292</v>
       </c>
@@ -2568,8 +3006,11 @@
         <f>DATE(1998,10,1)</f>
         <v>36069</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143">
+        <v>-6.3418030302948625E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>-68</v>
       </c>
@@ -2583,8 +3024,11 @@
         <f>DATE(1998,11,1)</f>
         <v>36100</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144">
+        <v>0.80239306145134892</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>70</v>
       </c>
@@ -2598,8 +3042,11 @@
         <f>DATE(1998,12,1)</f>
         <v>36130</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145">
+        <v>1.2352986073284979</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>99</v>
       </c>
@@ -2613,8 +3060,11 @@
         <f>DATE(1999,1,1)</f>
         <v>36161</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146">
+        <v>1.070382208899108</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>131</v>
       </c>
@@ -2628,8 +3078,11 @@
         <f>DATE(1999,2,1)</f>
         <v>36192</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147">
+        <v>1.2713740694849269</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>98</v>
       </c>
@@ -2643,8 +3096,11 @@
         <f>DATE(1999,3,1)</f>
         <v>36220</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148">
+        <v>0.86423671086237008</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>140</v>
       </c>
@@ -2658,8 +3114,11 @@
         <f>DATE(1999,4,1)</f>
         <v>36251</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149">
+        <v>1.188915870270232</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>126</v>
       </c>
@@ -2673,8 +3132,11 @@
         <f>DATE(1999,5,1)</f>
         <v>36281</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150">
+        <v>1.0497676590954339</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>137</v>
       </c>
@@ -2688,8 +3150,11 @@
         <f>DATE(1999,6,1)</f>
         <v>36312</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151">
+        <v>1.0961503961537</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>111</v>
       </c>
@@ -2703,8 +3168,11 @@
         <f>DATE(1999,7,1)</f>
         <v>36342</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152">
+        <v>0.874543985764207</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>110</v>
       </c>
@@ -2718,8 +3186,11 @@
         <f>DATE(1999,8,1)</f>
         <v>36373</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153">
+        <v>0.91061944792063609</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>101</v>
       </c>
@@ -2733,8 +3204,11 @@
         <f>DATE(1999,9,1)</f>
         <v>36404</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154">
+        <v>0.874543985764207</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>91</v>
       </c>
@@ -2748,8 +3222,11 @@
         <f>DATE(1999,10,1)</f>
         <v>36434</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155">
+        <v>0.79723942400043046</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>47</v>
       </c>
@@ -2763,8 +3240,11 @@
         <f>DATE(1999,11,1)</f>
         <v>36465</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156">
+        <v>0.37979479047603698</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>61</v>
       </c>
@@ -2778,8 +3258,11 @@
         <f>DATE(1999,12,1)</f>
         <v>36495</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157">
+        <v>0.1221129179301151</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>74</v>
       </c>
@@ -2793,8 +3276,11 @@
         <f>DATE(2000,1,1)</f>
         <v>36526</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158">
+        <v>0.15818838008654421</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>95</v>
       </c>
@@ -2808,8 +3294,11 @@
         <f>DATE(2000,2,1)</f>
         <v>36557</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159">
+        <v>0.23549294185032069</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>113</v>
       </c>
@@ -2823,8 +3312,11 @@
         <f>DATE(2000,3,1)</f>
         <v>36586</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160">
+        <v>0.46740662714165038</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>61</v>
       </c>
@@ -2838,8 +3330,11 @@
         <f>DATE(2000,4,1)</f>
         <v>36617</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161">
+        <v>-8.9186217557540817E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>-71</v>
       </c>
@@ -2853,8 +3348,11 @@
         <f>DATE(2000,5,1)</f>
         <v>36647</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162">
+        <v>-0.9240754846063276</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>-227</v>
       </c>
@@ -2868,8 +3366,11 @@
         <f>DATE(2000,6,1)</f>
         <v>36678</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163">
+        <v>-1.1662964447994939</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>-282</v>
       </c>
@@ -2883,8 +3384,11 @@
         <f>DATE(2000,7,1)</f>
         <v>36708</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164">
+        <v>-1.2642155563669439</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>-294</v>
       </c>
@@ -2898,8 +3402,11 @@
         <f>DATE(2000,8,1)</f>
         <v>36739</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165">
+        <v>-1.320905568327047</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>-288</v>
       </c>
@@ -2913,8 +3420,11 @@
         <f>DATE(2000,9,1)</f>
         <v>36770</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166">
+        <v>-1.37759558028715</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>-275</v>
       </c>
@@ -2928,8 +3438,11 @@
         <f>DATE(2000,10,1)</f>
         <v>36800</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167">
+        <v>-1.346673755581639</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>-253</v>
       </c>
@@ -2943,8 +3456,11 @@
         <f>DATE(2000,11,1)</f>
         <v>36831</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168">
+        <v>-1.2023719069559231</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>-259</v>
       </c>
@@ -2958,8 +3474,11 @@
         <f>DATE(2000,12,1)</f>
         <v>36861</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169">
+        <v>-1.0529164208792881</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>-284</v>
       </c>
@@ -2973,8 +3492,11 @@
         <f>DATE(2001,1,1)</f>
         <v>36892</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170">
+        <v>-1.135374620093984</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>-272</v>
       </c>
@@ -2988,8 +3510,11 @@
         <f>DATE(2001,2,1)</f>
         <v>36923</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171">
+        <v>-1.1662964447994939</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>-269</v>
       </c>
@@ -3003,8 +3528,11 @@
         <f>DATE(2001,3,1)</f>
         <v>36951</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172">
+        <v>-1.192064632054086</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>-309</v>
       </c>
@@ -3018,8 +3546,11 @@
         <f>DATE(2001,4,1)</f>
         <v>36982</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173">
+        <v>-1.2332937316614341</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>-318</v>
       </c>
@@ -3033,8 +3564,11 @@
         <f>DATE(2001,5,1)</f>
         <v>37012</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174">
+        <v>-1.2899837436215369</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>-331</v>
       </c>
@@ -3048,8 +3582,11 @@
         <f>DATE(2001,6,1)</f>
         <v>37043</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175">
+        <v>-1.470361054403682</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>-349</v>
       </c>
@@ -3063,8 +3600,11 @@
         <f>DATE(2001,7,1)</f>
         <v>37073</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176">
+        <v>-1.372441942836232</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>-354</v>
       </c>
@@ -3078,8 +3618,11 @@
         <f>DATE(2001,8,1)</f>
         <v>37104</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177">
+        <v>-0.49116993872917891</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>-307</v>
       </c>
@@ -3093,8 +3636,11 @@
         <f>DATE(2001,9,1)</f>
         <v>37135</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178">
+        <v>0.15303474263562569</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>-136</v>
       </c>
@@ -3108,8 +3654,11 @@
         <f>DATE(2001,10,1)</f>
         <v>37165</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179">
+        <v>0.66839848772746957</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>21</v>
       </c>
@@ -3123,8 +3672,11 @@
         <f>DATE(2001,11,1)</f>
         <v>37196</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180">
+        <v>1.0188458343899229</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>140</v>
       </c>
@@ -3138,8 +3690,11 @@
         <f>DATE(2001,12,1)</f>
         <v>37226</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181">
+        <v>1.462058655168909</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>118</v>
       </c>
@@ -3153,8 +3708,11 @@
         <f>DATE(2002,1,1)</f>
         <v>37257</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182">
+        <v>1.2559131571321711</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>148</v>
       </c>
@@ -3168,8 +3726,11 @@
         <f>DATE(2002,2,1)</f>
         <v>37288</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183">
+        <v>1.32806408144503</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>158</v>
       </c>
@@ -3183,8 +3744,11 @@
         <f>DATE(2002,3,1)</f>
         <v>37316</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184">
+        <v>1.3486786312487029</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>129</v>
       </c>
@@ -3198,8 +3762,11 @@
         <f>DATE(2002,4,1)</f>
         <v>37347</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185">
+        <v>1.1064576710555369</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>133</v>
       </c>
@@ -3213,8 +3780,11 @@
         <f>DATE(2002,5,1)</f>
         <v>37377</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186">
+        <v>1.1528404081138031</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>92</v>
       </c>
@@ -3228,8 +3798,11 @@
         <f>DATE(2002,6,1)</f>
         <v>37408</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187">
+        <v>0.75085668694216456</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>103</v>
       </c>
@@ -3243,8 +3816,11 @@
         <f>DATE(2002,7,1)</f>
         <v>37438</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188">
+        <v>0.9209267228224729</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>83</v>
       </c>
@@ -3258,8 +3834,11 @@
         <f>DATE(2002,8,1)</f>
         <v>37469</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189">
+        <v>0.8281612487059411</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>65</v>
       </c>
@@ -3273,8 +3852,11 @@
         <f>DATE(2002,9,1)</f>
         <v>37500</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190">
+        <v>0.77147123674583828</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>41</v>
       </c>
@@ -3288,8 +3870,11 @@
         <f>DATE(2002,10,1)</f>
         <v>37530</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191">
+        <v>0.26641476655583141</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>-42</v>
       </c>
@@ -3303,8 +3888,11 @@
         <f>DATE(2002,11,1)</f>
         <v>37561</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192">
+        <v>-0.2334880661832571</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>-41</v>
       </c>
@@ -3318,8 +3906,11 @@
         <f>DATE(2002,12,1)</f>
         <v>37591</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193">
+        <v>-0.58393541284571082</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>-14</v>
       </c>
@@ -3333,8 +3924,11 @@
         <f>DATE(2003,1,1)</f>
         <v>37622</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194">
+        <v>-0.53755267578744481</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>-2</v>
       </c>
@@ -3348,8 +3942,11 @@
         <f>DATE(2003,2,1)</f>
         <v>37653</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195">
+        <v>-0.48601630127826051</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>-73</v>
       </c>
@@ -3363,8 +3960,11 @@
         <f>DATE(2003,3,1)</f>
         <v>37681</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196">
+        <v>-0.67670088696224262</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>-194</v>
       </c>
@@ -3378,8 +3978,11 @@
         <f>DATE(2003,4,1)</f>
         <v>37712</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197">
+        <v>-0.96015094676275659</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>-269</v>
       </c>
@@ -3393,8 +3996,11 @@
         <f>DATE(2003,5,1)</f>
         <v>37742</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198">
+        <v>-1.0683773332320441</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>-288</v>
       </c>
@@ -3408,8 +4014,11 @@
         <f>DATE(2003,6,1)</f>
         <v>37773</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199">
+        <v>-1.11476007029031</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>-313</v>
       </c>
@@ -3423,8 +4032,11 @@
         <f>DATE(2003,7,1)</f>
         <v>37803</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200">
+        <v>-1.2384473691123521</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>-318</v>
       </c>
@@ -3438,8 +4050,11 @@
         <f>DATE(2003,8,1)</f>
         <v>37834</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201">
+        <v>-1.356981030483476</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>-313</v>
       </c>
@@ -3453,8 +4068,11 @@
         <f>DATE(2003,9,1)</f>
         <v>37865</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202">
+        <v>-1.336366480679803</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>-312</v>
       </c>
@@ -3468,8 +4086,11 @@
         <f>DATE(2003,10,1)</f>
         <v>37895</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203">
+        <v>-1.2796764687197</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>-321</v>
       </c>
@@ -3483,8 +4104,11 @@
         <f>DATE(2003,11,1)</f>
         <v>37926</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204">
+        <v>-0.42932628931815769</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>-165</v>
       </c>
@@ -3498,8 +4122,11 @@
         <f>DATE(2003,12,1)</f>
         <v>37956</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205">
+        <v>0.64263030047287728</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>-16</v>
       </c>
@@ -3513,8 +4140,11 @@
         <f>DATE(2004,1,1)</f>
         <v>37987</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206">
+        <v>1.0239994718408421</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>78</v>
       </c>
@@ -3528,8 +4158,11 @@
         <f>DATE(2004,2,1)</f>
         <v>38018</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207">
+        <v>1.0239994718408421</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>112</v>
       </c>
@@ -3543,8 +4176,11 @@
         <f>DATE(2004,3,1)</f>
         <v>38047</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208">
+        <v>1.1219185834082921</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>126</v>
       </c>
@@ -3558,8 +4194,11 @@
         <f>DATE(2004,4,1)</f>
         <v>38078</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209">
+        <v>1.132225858310129</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>120</v>
       </c>
@@ -3573,8 +4212,11 @@
         <f>DATE(2004,5,1)</f>
         <v>38108</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210">
+        <v>1.039460384193597</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>95</v>
       </c>
@@ -3588,8 +4230,11 @@
         <f>DATE(2004,6,1)</f>
         <v>38139</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211">
+        <v>0.93123399772430981</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>90</v>
       </c>
@@ -3603,8 +4248,11 @@
         <f>DATE(2004,7,1)</f>
         <v>38169</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212">
+        <v>0.8281612487059411</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>98</v>
       </c>
@@ -3618,8 +4266,11 @@
         <f>DATE(2004,8,1)</f>
         <v>38200</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213">
+        <v>0.67870576262930638</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>88</v>
       </c>
@@ -3633,8 +4284,11 @@
         <f>DATE(2004,9,1)</f>
         <v>38231</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214">
+        <v>0.59624756341461138</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>73</v>
       </c>
@@ -3648,8 +4302,11 @@
         <f>DATE(2004,10,1)</f>
         <v>38261</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215">
+        <v>0.51894300165083473</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>48</v>
       </c>
@@ -3663,8 +4320,11 @@
         <f>DATE(2004,11,1)</f>
         <v>38292</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216">
+        <v>-3.2496205597438009E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>14</v>
       </c>
@@ -3678,8 +4338,11 @@
         <f>DATE(2004,12,1)</f>
         <v>38322</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217">
+        <v>-0.47055538892550519</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>-18</v>
       </c>
@@ -3693,8 +4356,11 @@
         <f>DATE(2005,1,1)</f>
         <v>38353</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218">
+        <v>-0.59939632519846608</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>18</v>
       </c>
@@ -3708,8 +4374,11 @@
         <f>DATE(2005,2,1)</f>
         <v>38384</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219">
+        <v>-0.43963356421999461</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>-9</v>
       </c>
@@ -3723,8 +4392,11 @@
         <f>DATE(2005,3,1)</f>
         <v>38412</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220">
+        <v>-0.57362813794387391</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>-178</v>
       </c>
@@ -3738,8 +4410,11 @@
         <f>DATE(2005,4,1)</f>
         <v>38443</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221">
+        <v>-1.0323018710756151</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>-266</v>
       </c>
@@ -3753,8 +4428,11 @@
         <f>DATE(2005,5,1)</f>
         <v>38473</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222">
+        <v>-1.1456818949958201</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>-286</v>
       </c>
@@ -3768,8 +4446,11 @@
         <f>DATE(2005,6,1)</f>
         <v>38504</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223">
+        <v>-1.135374620093984</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>-309</v>
       </c>
@@ -3783,8 +4464,11 @@
         <f>DATE(2005,7,1)</f>
         <v>38534</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224">
+        <v>-1.21267918185776</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>-316</v>
       </c>
@@ -3798,8 +4482,11 @@
         <f>DATE(2005,8,1)</f>
         <v>38565</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225">
+        <v>-1.248754644014189</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>-318</v>
       </c>
@@ -3813,8 +4500,11 @@
         <f>DATE(2005,9,1)</f>
         <v>38596</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226">
+        <v>-1.253908281465107</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>-320</v>
       </c>
@@ -3828,8 +4518,11 @@
         <f>DATE(2005,10,1)</f>
         <v>38626</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227">
+        <v>-1.2796764687197</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>-333</v>
       </c>
@@ -3843,8 +4536,11 @@
         <f>DATE(2005,11,1)</f>
         <v>38657</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228">
+        <v>-1.418824679894497</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>-324</v>
       </c>
@@ -3858,8 +4554,11 @@
         <f>DATE(2005,12,1)</f>
         <v>38687</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229">
+        <v>-0.83646364794071415</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>-288</v>
       </c>
@@ -3873,8 +4572,11 @@
         <f>DATE(2006,1,1)</f>
         <v>38718</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230">
+        <v>0.21487839204664699</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>-93</v>
       </c>
@@ -3888,8 +4590,11 @@
         <f>DATE(2006,2,1)</f>
         <v>38749</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231">
+        <v>0.85908307341145174</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>83</v>
       </c>
@@ -3903,8 +4608,11 @@
         <f>DATE(2006,3,1)</f>
         <v>38777</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232">
+        <v>1.1476867706628839</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>85</v>
       </c>
@@ -3918,8 +4626,11 @@
         <f>DATE(2006,4,1)</f>
         <v>38808</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233">
+        <v>0.98792400968441263</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>106</v>
       </c>
@@ -3933,8 +4644,11 @@
         <f>DATE(2006,5,1)</f>
         <v>38838</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234">
+        <v>0.97246309733165737</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>123</v>
       </c>
@@ -3948,8 +4662,11 @@
         <f>DATE(2006,6,1)</f>
         <v>38869</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235">
+        <v>1.1528404081138031</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>126</v>
       </c>
@@ -3963,8 +4680,11 @@
         <f>DATE(2006,7,1)</f>
         <v>38899</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236">
+        <v>1.0239994718408421</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>71</v>
       </c>
@@ -3978,8 +4698,11 @@
         <f>DATE(2006,8,1)</f>
         <v>38930</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237">
+        <v>0.73024213713849073</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>109</v>
       </c>
@@ -3993,8 +4716,11 @@
         <f>DATE(2006,9,1)</f>
         <v>38961</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238">
+        <v>0.81270033635318573</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>93</v>
       </c>
@@ -4008,8 +4734,11 @@
         <f>DATE(2006,10,1)</f>
         <v>38991</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239">
+        <v>0.67870576262930638</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>89</v>
       </c>
@@ -4023,8 +4752,11 @@
         <f>DATE(2006,11,1)</f>
         <v>39022</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240">
+        <v>0.72508849968757239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>73</v>
       </c>
@@ -4038,8 +4770,11 @@
         <f>DATE(2006,12,1)</f>
         <v>39052</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241">
+        <v>0.2200320294975654</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>54</v>
       </c>
@@ -4053,8 +4788,11 @@
         <f>DATE(2007,1,1)</f>
         <v>39083</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242">
+        <v>-5.8264392852030188E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>53</v>
       </c>
@@ -4068,8 +4806,11 @@
         <f>DATE(2007,2,1)</f>
         <v>39114</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243">
+        <v>4.4808356166338548E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>14</v>
       </c>
@@ -4083,8 +4824,11 @@
         <f>DATE(2007,3,1)</f>
         <v>39142</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244">
+        <v>-0.19225896657590949</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>-147</v>
       </c>
@@ -4098,8 +4842,11 @@
         <f>DATE(2007,4,1)</f>
         <v>39173</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245">
+        <v>-0.80038818578428506</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>-253</v>
       </c>
@@ -4113,8 +4860,11 @@
         <f>DATE(2007,5,1)</f>
         <v>39203</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246">
+        <v>-1.0683773332320441</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>-297</v>
       </c>
@@ -4128,8 +4878,11 @@
         <f>DATE(2007,6,1)</f>
         <v>39234</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247">
+        <v>-1.1044527953884731</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>-313</v>
       </c>
@@ -4143,8 +4896,11 @@
         <f>DATE(2007,7,1)</f>
         <v>39264</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248">
+        <v>-1.2693691938178631</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>-316</v>
       </c>
@@ -4158,8 +4914,11 @@
         <f>DATE(2007,8,1)</f>
         <v>39295</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249">
+        <v>-1.3105982934252101</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>-321</v>
       </c>
@@ -4173,8 +4932,11 @@
         <f>DATE(2007,9,1)</f>
         <v>39326</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250">
+        <v>-1.346673755581639</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>-316</v>
       </c>
@@ -4188,8 +4950,11 @@
         <f>DATE(2007,10,1)</f>
         <v>39356</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251">
+        <v>-1.305444655974292</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>-320</v>
       </c>
@@ -4203,8 +4968,11 @@
         <f>DATE(2007,11,1)</f>
         <v>39387</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252">
+        <v>-1.1250673451921469</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>-265</v>
       </c>
@@ -4218,8 +4986,11 @@
         <f>DATE(2007,12,1)</f>
         <v>39417</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253">
+        <v>0.25610749165399449</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>-126</v>
       </c>
@@ -4233,8 +5004,11 @@
         <f>DATE(2008,1,1)</f>
         <v>39448</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E254">
+        <v>0.52925027655267165</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>38</v>
       </c>
@@ -4248,8 +5022,11 @@
         <f>DATE(2008,2,1)</f>
         <v>39479</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E255">
+        <v>1.044614021644515</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>112</v>
       </c>
@@ -4263,8 +5040,11 @@
         <f>DATE(2008,3,1)</f>
         <v>39508</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256">
+        <v>1.16314768301564</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>124</v>
       </c>
@@ -4278,8 +5058,11 @@
         <f>DATE(2008,4,1)</f>
         <v>39539</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E257">
+        <v>1.2198376949757419</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>124</v>
       </c>
@@ -4293,8 +5076,11 @@
         <f>DATE(2008,5,1)</f>
         <v>39569</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E258">
+        <v>1.0239994718408421</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>157</v>
       </c>
@@ -4308,8 +5094,11 @@
         <f>DATE(2008,6,1)</f>
         <v>39600</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E259">
+        <v>1.266220432034008</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>135</v>
       </c>
@@ -4323,8 +5112,11 @@
         <f>DATE(2008,7,1)</f>
         <v>39630</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E260">
+        <v>1.060074933997271</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>118</v>
       </c>
@@ -4338,8 +5130,11 @@
         <f>DATE(2008,8,1)</f>
         <v>39661</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E261">
+        <v>1.0652285714481891</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>105</v>
       </c>
@@ -4353,8 +5148,11 @@
         <f>DATE(2008,9,1)</f>
         <v>39692</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E262">
+        <v>1.039460384193597</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>93</v>
       </c>
@@ -4368,8 +5166,11 @@
         <f>DATE(2008,10,1)</f>
         <v>39722</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263">
+        <v>0.86939034831328854</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>75</v>
       </c>
@@ -4383,8 +5184,11 @@
         <f>DATE(2008,11,1)</f>
         <v>39753</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E264">
+        <v>0.62201575066920356</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>111</v>
       </c>
@@ -4398,8 +5202,11 @@
         <f>DATE(2008,12,1)</f>
         <v>39783</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E265">
+        <v>0.75601032439308291</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>119</v>
       </c>
@@ -4413,8 +5220,11 @@
         <f>DATE(2009,1,1)</f>
         <v>39814</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266">
+        <v>0.79723942400043046</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>155</v>
       </c>
@@ -4428,8 +5238,11 @@
         <f>DATE(2009,2,1)</f>
         <v>39845</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E267">
+        <v>0.99823128458624955</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>118</v>
       </c>
@@ -4443,8 +5256,11 @@
         <f>DATE(2009,3,1)</f>
         <v>39873</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E268">
+        <v>0.86423671086237008</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>103</v>
       </c>
@@ -4458,8 +5274,11 @@
         <f>DATE(2009,4,1)</f>
         <v>39904</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E269">
+        <v>0.53440391400359011</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>32</v>
       </c>
@@ -4473,8 +5292,11 @@
         <f>DATE(2009,5,1)</f>
         <v>39934</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E270">
+        <v>-0.3932508271617286</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>-134</v>
       </c>
@@ -4488,8 +5310,11 @@
         <f>DATE(2009,6,1)</f>
         <v>39965</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E271">
+        <v>-0.93438275950816441</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>-227</v>
       </c>
@@ -4503,8 +5328,11 @@
         <f>DATE(2009,7,1)</f>
         <v>39995</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E272">
+        <v>-1.155989169897657</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>-218</v>
       </c>
@@ -4518,8 +5346,11 @@
         <f>DATE(2009,8,1)</f>
         <v>40026</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E273">
+        <v>-1.1817573571522491</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>-220</v>
       </c>
@@ -4533,8 +5364,11 @@
         <f>DATE(2009,9,1)</f>
         <v>40057</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E274">
+        <v>-1.1662964447994939</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>-199</v>
       </c>
@@ -4548,8 +5382,11 @@
         <f>DATE(2009,10,1)</f>
         <v>40087</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E275">
+        <v>-1.186910994603168</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>-252</v>
       </c>
@@ -4563,8 +5400,11 @@
         <f>DATE(2009,11,1)</f>
         <v>40118</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E276">
+        <v>-1.1456818949958201</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>-259</v>
       </c>
@@ -4578,8 +5418,11 @@
         <f>DATE(2009,12,1)</f>
         <v>40148</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E277">
+        <v>-1.119913707741228</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>-265</v>
       </c>
@@ -4593,8 +5436,11 @@
         <f>DATE(2010,1,1)</f>
         <v>40179</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E278">
+        <v>-1.0941455204866359</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>-272</v>
       </c>
@@ -4608,8 +5454,11 @@
         <f>DATE(2010,2,1)</f>
         <v>40210</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E279">
+        <v>-1.1456818949958201</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>-269</v>
       </c>
@@ -4623,8 +5472,11 @@
         <f>DATE(2010,3,1)</f>
         <v>40238</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E280">
+        <v>-1.150835532446739</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>-272</v>
       </c>
@@ -4638,8 +5490,11 @@
         <f>DATE(2010,4,1)</f>
         <v>40269</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E281">
+        <v>-1.1302209826430649</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>-263</v>
       </c>
@@ -4653,8 +5508,11 @@
         <f>DATE(2010,5,1)</f>
         <v>40299</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E282">
+        <v>-1.119913707741228</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>-285</v>
       </c>
@@ -4668,8 +5526,11 @@
         <f>DATE(2010,6,1)</f>
         <v>40330</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E283">
+        <v>-0.67670088696224262</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>-59</v>
       </c>
@@ -4683,8 +5544,11 @@
         <f>DATE(2010,7,1)</f>
         <v>40360</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E284">
+        <v>0.68901303753114329</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>117</v>
       </c>
@@ -4698,8 +5562,11 @@
         <f>DATE(2010,8,1)</f>
         <v>40391</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E285">
+        <v>0.97761673478257571</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>134</v>
       </c>
@@ -4713,8 +5580,11 @@
         <f>DATE(2010,9,1)</f>
         <v>40422</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E286">
+        <v>1.0239994718408421</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>116</v>
       </c>
@@ -4728,8 +5598,11 @@
         <f>DATE(2010,10,1)</f>
         <v>40452</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E287">
+        <v>0.97761673478257571</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>118</v>
       </c>
@@ -4743,8 +5616,11 @@
         <f>DATE(2010,11,1)</f>
         <v>40483</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E288">
+        <v>1.0136921969390049</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>83</v>
       </c>
@@ -4758,8 +5634,11 @@
         <f>DATE(2010,12,1)</f>
         <v>40513</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E289">
+        <v>0.8281612487059411</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>97</v>
       </c>
@@ -4773,8 +5652,11 @@
         <f>DATE(2011,1,1)</f>
         <v>40544</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E290">
+        <v>0.76116396184400137</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>97</v>
       </c>
@@ -4788,8 +5670,11 @@
         <f>DATE(2011,2,1)</f>
         <v>40575</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E291">
+        <v>0.86423671086237008</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>101</v>
       </c>
@@ -4803,8 +5688,11 @@
         <f>DATE(2011,3,1)</f>
         <v>40603</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E292">
+        <v>0.92608036027339136</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>92</v>
       </c>
@@ -4818,8 +5706,11 @@
         <f>DATE(2011,4,1)</f>
         <v>40634</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E293">
+        <v>0.8384685236077779</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>96</v>
       </c>
@@ -4833,8 +5724,11 @@
         <f>DATE(2011,5,1)</f>
         <v>40664</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E294">
+        <v>0.54986482635634537</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>70</v>
       </c>
@@ -4848,8 +5742,11 @@
         <f>DATE(2011,6,1)</f>
         <v>40695</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E295">
+        <v>-0.10464712991029609</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>9</v>
       </c>
@@ -4863,8 +5760,11 @@
         <f>DATE(2011,7,1)</f>
         <v>40725</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E296">
+        <v>-0.35717536500529962</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>25</v>
       </c>
@@ -4878,8 +5778,11 @@
         <f>DATE(2011,8,1)</f>
         <v>40756</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E297">
+        <v>-0.3520217275543811</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>-32</v>
       </c>
@@ -4893,8 +5796,11 @@
         <f>DATE(2011,9,1)</f>
         <v>40787</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E298">
+        <v>-0.57878177539479236</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>-75</v>
       </c>
@@ -4908,8 +5814,11 @@
         <f>DATE(2011,10,1)</f>
         <v>40817</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E299">
+        <v>-0.79008091088244825</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>-189</v>
       </c>
@@ -4923,8 +5832,11 @@
         <f>DATE(2011,11,1)</f>
         <v>40848</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E300">
+        <v>-1.0374555085265329</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>-239</v>
       </c>
@@ -4938,8 +5850,11 @@
         <f>DATE(2011,12,1)</f>
         <v>40878</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E301">
+        <v>-1.119913707741228</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>-238</v>
       </c>
@@ -4953,8 +5868,11 @@
         <f>DATE(2012,1,1)</f>
         <v>40909</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E302">
+        <v>-1.083838245584799</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>-213</v>
       </c>
@@ -4968,8 +5886,11 @@
         <f>DATE(2012,2,1)</f>
         <v>40940</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E303">
+        <v>-1.058070058330207</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>-217</v>
       </c>
@@ -4983,8 +5904,11 @@
         <f>DATE(2012,3,1)</f>
         <v>40969</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E304">
+        <v>-1.0529164208792881</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>-257</v>
       </c>
@@ -4998,8 +5922,11 @@
         <f>DATE(2012,4,1)</f>
         <v>41000</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E305">
+        <v>-1.1096064328393911</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>-306</v>
       </c>
@@ -5013,8 +5940,11 @@
         <f>DATE(2012,5,1)</f>
         <v>41030</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E306">
+        <v>-1.2229864567595969</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>-325</v>
       </c>
@@ -5028,8 +5958,11 @@
         <f>DATE(2012,6,1)</f>
         <v>41061</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E307">
+        <v>-1.2590619189160259</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>-326</v>
       </c>
@@ -5043,8 +5976,11 @@
         <f>DATE(2012,7,1)</f>
         <v>41091</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E308">
+        <v>-1.2642155563669439</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>-347</v>
       </c>
@@ -5058,8 +5994,11 @@
         <f>DATE(2012,8,1)</f>
         <v>41122</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E309">
+        <v>-1.2796764687197</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>-331</v>
       </c>
@@ -5073,8 +6012,11 @@
         <f>DATE(2012,9,1)</f>
         <v>41153</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E310">
+        <v>-1.1044527953884731</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>-336</v>
       </c>
@@ -5088,8 +6030,11 @@
         <f>DATE(2012,10,1)</f>
         <v>41183</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E311">
+        <v>-1.0529164208792881</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>-335</v>
       </c>
@@ -5103,8 +6048,11 @@
         <f>DATE(2012,11,1)</f>
         <v>41214</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E312">
+        <v>-0.14587622951764359</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>-161</v>
       </c>
@@ -5118,8 +6066,11 @@
         <f>DATE(2012,12,1)</f>
         <v>41244</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E313">
+        <v>0.77662487419675674</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>-47</v>
       </c>
@@ -5133,8 +6084,11 @@
         <f>DATE(2013,1,1)</f>
         <v>41275</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E314">
+        <v>1.0291531092917601</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>18</v>
       </c>
@@ -5148,8 +6102,11 @@
         <f>DATE(2013,2,1)</f>
         <v>41306</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E315">
+        <v>1.111611308506455</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>89</v>
       </c>
@@ -5163,8 +6120,11 @@
         <f>DATE(2013,3,1)</f>
         <v>41334</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E316">
+        <v>1.070382208899108</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>102</v>
       </c>
@@ -5178,8 +6138,11 @@
         <f>DATE(2013,4,1)</f>
         <v>41365</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E317">
+        <v>1.0858431212518631</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>109</v>
       </c>
@@ -5193,8 +6156,11 @@
         <f>DATE(2013,5,1)</f>
         <v>41395</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E318">
+        <v>1.16314768301564</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>157</v>
       </c>
@@ -5208,8 +6174,11 @@
         <f>DATE(2013,6,1)</f>
         <v>41426</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E319">
+        <v>1.26106679458309</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>147</v>
       </c>
@@ -5223,8 +6192,11 @@
         <f>DATE(2013,7,1)</f>
         <v>41456</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E320">
+        <v>1.1837622328193129</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>122</v>
       </c>
@@ -5238,8 +6210,11 @@
         <f>DATE(2013,8,1)</f>
         <v>41487</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E321">
+        <v>1.168301320466558</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>139</v>
       </c>
@@ -5253,8 +6228,11 @@
         <f>DATE(2013,9,1)</f>
         <v>41518</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E322">
+        <v>1.16314768301564</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>119</v>
       </c>
@@ -5268,8 +6246,11 @@
         <f>DATE(2013,10,1)</f>
         <v>41548</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E323">
+        <v>0.93638763517522827</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>118</v>
       </c>
@@ -5283,8 +6264,11 @@
         <f>DATE(2013,11,1)</f>
         <v>41579</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E324">
+        <v>0.95184854752798354</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>117</v>
       </c>
@@ -5298,8 +6282,11 @@
         <f>DATE(2013,12,1)</f>
         <v>41609</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E325">
+        <v>0.89000489811696237</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>148</v>
       </c>
@@ -5313,8 +6300,11 @@
         <f>DATE(2014,1,1)</f>
         <v>41640</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E326">
+        <v>1.070382208899108</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>126</v>
       </c>
@@ -5328,8 +6318,11 @@
         <f>DATE(2014,2,1)</f>
         <v>41671</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E327">
+        <v>1.008538559488086</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>113</v>
       </c>
@@ -5343,8 +6336,11 @@
         <f>DATE(2014,3,1)</f>
         <v>41699</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E328">
+        <v>0.91577308537155455</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>88</v>
       </c>
@@ -5358,8 +6354,11 @@
         <f>DATE(2014,4,1)</f>
         <v>41730</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E329">
+        <v>0.30249022871226039</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>-131</v>
       </c>
@@ -5373,8 +6372,11 @@
         <f>DATE(2014,5,1)</f>
         <v>41760</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E330">
+        <v>-0.75915908617693761</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>-258</v>
       </c>
@@ -5388,8 +6390,11 @@
         <f>DATE(2014,6,1)</f>
         <v>41791</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E331">
+        <v>-0.92922912205724595</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>-307</v>
       </c>
@@ -5403,8 +6408,11 @@
         <f>DATE(2014,7,1)</f>
         <v>41821</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E332">
+        <v>-1.1456818949958201</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>-295</v>
       </c>
@@ -5418,8 +6426,11 @@
         <f>DATE(2014,8,1)</f>
         <v>41852</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E333">
+        <v>-1.2693691938178631</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>-317</v>
       </c>
@@ -5433,8 +6444,11 @@
         <f>DATE(2014,9,1)</f>
         <v>41883</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E334">
+        <v>-1.3621346679343951</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>-323</v>
       </c>
@@ -5448,8 +6462,11 @@
         <f>DATE(2014,10,1)</f>
         <v>41913</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E335">
+        <v>-1.3879028551889869</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>-312</v>
       </c>
@@ -5463,8 +6480,11 @@
         <f>DATE(2014,11,1)</f>
         <v>41944</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E336">
+        <v>-1.4033637675417421</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>-287</v>
       </c>
@@ -5478,8 +6498,11 @@
         <f>DATE(2014,12,1)</f>
         <v>41974</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E337">
+        <v>-1.2951373810724549</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>-278</v>
       </c>
@@ -5493,8 +6516,11 @@
         <f>DATE(2015,1,1)</f>
         <v>42005</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E338">
+        <v>-1.2332937316614341</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>-295</v>
       </c>
@@ -5508,8 +6534,11 @@
         <f>DATE(2015,2,1)</f>
         <v>42036</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E339">
+        <v>-1.1456818949958201</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>-314</v>
       </c>
@@ -5523,8 +6552,11 @@
         <f>DATE(2015,3,1)</f>
         <v>42064</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E340">
+        <v>-1.150835532446739</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>-311</v>
       </c>
@@ -5538,8 +6570,11 @@
         <f>DATE(2015,4,1)</f>
         <v>42095</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E341">
+        <v>-0.79008091088244825</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>-140</v>
       </c>
@@ -5553,8 +6588,11 @@
         <f>DATE(2015,5,1)</f>
         <v>42125</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E342">
+        <v>0.4416384398870582</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>75</v>
       </c>
@@ -5568,8 +6606,11 @@
         <f>DATE(2015,6,1)</f>
         <v>42156</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E343">
+        <v>0.90546581046971764</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>129</v>
       </c>
@@ -5583,8 +6624,11 @@
         <f>DATE(2015,7,1)</f>
         <v>42186</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E344">
+        <v>1.1476867706628839</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>135</v>
       </c>
@@ -5598,8 +6642,11 @@
         <f>DATE(2015,8,1)</f>
         <v>42217</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E345">
+        <v>1.204376782622987</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>162</v>
       </c>
@@ -5613,8 +6660,11 @@
         <f>DATE(2015,9,1)</f>
         <v>42248</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E346">
+        <v>1.2816813443867641</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>132</v>
       </c>
@@ -5628,8 +6678,11 @@
         <f>DATE(2015,10,1)</f>
         <v>42278</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E347">
+        <v>1.0549212965463519</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>138</v>
       </c>
@@ -5643,8 +6696,11 @@
         <f>DATE(2015,11,1)</f>
         <v>42309</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E348">
+        <v>1.132225858310129</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>89</v>
       </c>
@@ -5658,8 +6714,11 @@
         <f>DATE(2015,12,1)</f>
         <v>42339</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E349">
+        <v>0.96215582242982045</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>100</v>
       </c>
@@ -5673,8 +6732,11 @@
         <f>DATE(2016,1,1)</f>
         <v>42370</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E350">
+        <v>0.95700218497890199</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>95</v>
       </c>
@@ -5688,8 +6750,11 @@
         <f>DATE(2016,2,1)</f>
         <v>42401</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E351">
+        <v>1.0188458343899229</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>21</v>
       </c>
@@ -5703,8 +6768,11 @@
         <f>DATE(2016,3,1)</f>
         <v>42430</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E352">
+        <v>0.97761673478257571</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>-14</v>
       </c>
@@ -5718,8 +6786,11 @@
         <f>DATE(2016,4,1)</f>
         <v>42461</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E353">
+        <v>0.88485126066604392</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>53</v>
       </c>
@@ -5733,8 +6804,11 @@
         <f>DATE(2016,5,1)</f>
         <v>42491</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E354">
+        <v>0.93638763517522827</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>70</v>
       </c>
@@ -5748,8 +6822,11 @@
         <f>DATE(2016,6,1)</f>
         <v>42522</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E355">
+        <v>0.86939034831328854</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>105</v>
       </c>
@@ -5763,8 +6840,11 @@
         <f>DATE(2016,7,1)</f>
         <v>42552</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E356">
+        <v>0.89515853556788072</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>157</v>
       </c>
@@ -5778,8 +6858,11 @@
         <f>DATE(2016,8,1)</f>
         <v>42583</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E357">
+        <v>1.1270722208592101</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>152</v>
       </c>
@@ -5793,8 +6876,11 @@
         <f>DATE(2016,9,1)</f>
         <v>42614</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E358">
+        <v>1.137379495761047</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>142</v>
       </c>
@@ -5808,8 +6894,11 @@
         <f>DATE(2016,10,1)</f>
         <v>42644</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E359">
+        <v>1.188915870270232</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>157</v>
       </c>
@@ -5823,8 +6912,11 @@
         <f>DATE(2016,11,1)</f>
         <v>42675</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E360">
+        <v>1.2765277069358449</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>176</v>
       </c>
@@ -5838,8 +6930,11 @@
         <f>DATE(2016,12,1)</f>
         <v>42705</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E361">
+        <v>1.2352986073284979</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>171</v>
       </c>
@@ -5853,8 +6948,11 @@
         <f>DATE(2017,1,1)</f>
         <v>42736</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E362">
+        <v>1.230144969877579</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>177</v>
       </c>
@@ -5868,8 +6966,11 @@
         <f>DATE(2017,2,1)</f>
         <v>42767</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E363">
+        <v>1.2713740694849269</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>153</v>
       </c>
@@ -5883,8 +6984,11 @@
         <f>DATE(2017,3,1)</f>
         <v>42795</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E364">
+        <v>1.1476867706628839</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>136</v>
       </c>
@@ -5898,8 +7002,11 @@
         <f>DATE(2017,4,1)</f>
         <v>42826</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E365">
+        <v>1.003384922037168</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>58</v>
       </c>
@@ -5913,8 +7020,11 @@
         <f>DATE(2017,5,1)</f>
         <v>42856</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E366">
+        <v>-3.7649843048356453E-2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>-145</v>
       </c>
@@ -5928,8 +7038,11 @@
         <f>DATE(2017,6,1)</f>
         <v>42887</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E367">
+        <v>-0.90861457225357223</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>-256</v>
       </c>
@@ -5943,8 +7056,11 @@
         <f>DATE(2017,7,1)</f>
         <v>42917</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E368">
+        <v>-1.11476007029031</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>-256</v>
       </c>
@@ -5958,8 +7074,11 @@
         <f>DATE(2017,8,1)</f>
         <v>42948</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E369">
+        <v>-1.2384473691123521</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>-247</v>
       </c>
@@ -5973,8 +7092,11 @@
         <f>DATE(2017,9,1)</f>
         <v>42979</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E370">
+        <v>-1.341520118130721</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>-258</v>
       </c>
@@ -5988,8 +7110,11 @@
         <f>DATE(2017,10,1)</f>
         <v>43009</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E371">
+        <v>-1.320905568327047</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>-271</v>
       </c>
@@ -6003,8 +7128,11 @@
         <f>DATE(2017,11,1)</f>
         <v>43040</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E372">
+        <v>-1.217832819308678</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>-281</v>
       </c>
@@ -6018,8 +7146,11 @@
         <f>DATE(2017,12,1)</f>
         <v>43070</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E373">
+        <v>-1.176603719701331</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>-292</v>
       </c>
@@ -6033,8 +7164,11 @@
         <f>DATE(2018,1,1)</f>
         <v>43101</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E374">
+        <v>-1.192064632054086</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>-278</v>
       </c>
@@ -6048,8 +7182,11 @@
         <f>DATE(2018,2,1)</f>
         <v>43132</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E375">
+        <v>-1.228140094210515</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>-287</v>
       </c>
@@ -6063,8 +7200,11 @@
         <f>DATE(2018,3,1)</f>
         <v>43160</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E376">
+        <v>-1.253908281465107</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>-314</v>
       </c>
@@ -6078,8 +7218,11 @@
         <f>DATE(2018,4,1)</f>
         <v>43191</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E377">
+        <v>-1.2384473691123521</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>-315</v>
       </c>
@@ -6093,8 +7236,11 @@
         <f>DATE(2018,5,1)</f>
         <v>43221</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E378">
+        <v>-1.2693691938178631</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>-329</v>
       </c>
@@ -6108,8 +7254,11 @@
         <f>DATE(2018,6,1)</f>
         <v>43252</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E379">
+        <v>-1.4033637675417421</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>-330</v>
       </c>
@@ -6123,8 +7272,11 @@
         <f>DATE(2018,7,1)</f>
         <v>43282</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E380">
+        <v>-1.3930564926399049</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>-310</v>
       </c>
@@ -6138,8 +7290,11 @@
         <f>DATE(2018,8,1)</f>
         <v>43313</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E381">
+        <v>-0.16133714187039891</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>-109</v>
       </c>
@@ -6153,8 +7308,11 @@
         <f>DATE(2018,9,1)</f>
         <v>43344</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E382">
+        <v>0.64263030047287728</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>44</v>
       </c>
@@ -6168,8 +7326,11 @@
         <f>DATE(2018,10,1)</f>
         <v>43374</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E383">
+        <v>1.003384922037168</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>118</v>
       </c>
@@ -6183,8 +7344,11 @@
         <f>DATE(2018,11,1)</f>
         <v>43405</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E384">
+        <v>1.204376782622987</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>146</v>
       </c>
@@ -6198,8 +7362,11 @@
         <f>DATE(2018,12,1)</f>
         <v>43435</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E385">
+        <v>1.317756806543193</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>144</v>
       </c>
@@ -6213,8 +7380,11 @@
         <f>DATE(2019,1,1)</f>
         <v>43466</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E386">
+        <v>1.224991332426661</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>124</v>
       </c>
@@ -6228,8 +7398,11 @@
         <f>DATE(2019,2,1)</f>
         <v>43497</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E387">
+        <v>0.86423671086237008</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>165</v>
       </c>
@@ -6243,8 +7416,11 @@
         <f>DATE(2019,3,1)</f>
         <v>43525</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E388">
+        <v>1.2713740694849269</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>136</v>
       </c>
@@ -6258,8 +7434,11 @@
         <f>DATE(2019,4,1)</f>
         <v>43556</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E389">
+        <v>1.188915870270232</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>148</v>
       </c>
@@ -6273,8 +7452,11 @@
         <f>DATE(2019,5,1)</f>
         <v>43586</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E390">
+        <v>1.2559131571321711</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>125</v>
       </c>
@@ -6288,8 +7470,11 @@
         <f>DATE(2019,6,1)</f>
         <v>43617</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E391">
+        <v>1.034306746742679</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>114</v>
       </c>
@@ -6303,8 +7488,11 @@
         <f>DATE(2019,7,1)</f>
         <v>43647</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E392">
+        <v>1.0188458343899229</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>105</v>
       </c>
@@ -6318,8 +7506,11 @@
         <f>DATE(2019,8,1)</f>
         <v>43678</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E393">
+        <v>0.81270033635318573</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>95</v>
       </c>
@@ -6333,8 +7524,11 @@
         <f>DATE(2019,9,1)</f>
         <v>43709</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E394">
+        <v>0.8384685236077779</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>71</v>
       </c>
@@ -6348,8 +7542,11 @@
         <f>DATE(2019,10,1)</f>
         <v>43739</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E395">
+        <v>0.55501846380726383</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>73</v>
       </c>
@@ -6363,8 +7560,11 @@
         <f>DATE(2019,11,1)</f>
         <v>43770</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E396">
+        <v>0.22518566694848391</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>48</v>
       </c>
@@ -6378,8 +7578,11 @@
         <f>DATE(2019,12,1)</f>
         <v>43800</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E397">
+        <v>-8.4032580106622373E-2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>37</v>
       </c>
@@ -6393,8 +7596,11 @@
         <f>DATE(2020,1,1)</f>
         <v>43831</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E398">
+        <v>-6.7280183428458208E-3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>21</v>
       </c>
@@ -6408,8 +7614,11 @@
         <f>DATE(2020,2,1)</f>
         <v>43862</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E399">
+        <v>0.21487839204664699</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>0</v>
       </c>
@@ -6423,8 +7632,11 @@
         <f>DATE(2020,3,1)</f>
         <v>43891</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E400">
+        <v>0.39010206537787379</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>-28</v>
       </c>
@@ -6438,8 +7650,11 @@
         <f>DATE(2020,4,1)</f>
         <v>43922</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E401">
+        <v>0.33856569086868948</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>-17</v>
       </c>
@@ -6453,8 +7668,11 @@
         <f>DATE(2020,5,1)</f>
         <v>43952</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E402">
+        <v>0.47771390204348729</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>57</v>
       </c>
@@ -6468,8 +7686,11 @@
         <f>DATE(2020,6,1)</f>
         <v>43983</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E403">
+        <v>0.63747666302195882</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>88</v>
       </c>
@@ -6483,8 +7704,11 @@
         <f>DATE(2020,7,1)</f>
         <v>44013</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E404">
+        <v>0.68385940008022483</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>104</v>
       </c>
@@ -6498,8 +7722,11 @@
         <f>DATE(2020,8,1)</f>
         <v>44044</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E405">
+        <v>0.85908307341145174</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>120</v>
       </c>
@@ -6513,8 +7740,11 @@
         <f>DATE(2020,9,1)</f>
         <v>44075</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E406">
+        <v>0.96730945988073891</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>135</v>
       </c>
@@ -6528,8 +7758,11 @@
         <f>DATE(2020,10,1)</f>
         <v>44105</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E407">
+        <v>0.96730945988073891</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>144</v>
       </c>
@@ -6543,8 +7776,11 @@
         <f>DATE(2020,11,1)</f>
         <v>44136</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E408">
+        <v>1.003384922037168</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>104</v>
       </c>
@@ -6558,80 +7794,68 @@
         <f>DATE(2020,12,1)</f>
         <v>44166</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A410" s="1">
-        <v>72</v>
-      </c>
-      <c r="B410" s="1">
-        <v>71</v>
-      </c>
-      <c r="C410" s="1">
-        <v>11</v>
-      </c>
-      <c r="D410" s="5">
-        <f>DATE(2021,1,1)</f>
-        <v>44197</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A411" s="1">
-        <v>65</v>
-      </c>
-      <c r="B411" s="1">
-        <v>81</v>
-      </c>
-      <c r="C411" s="1">
-        <v>9</v>
-      </c>
-      <c r="D411" s="5">
-        <f>DATE(2021,2,1)</f>
-        <v>44228</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A412" s="1">
-        <v>79</v>
-      </c>
-      <c r="B412" s="1">
-        <v>76</v>
-      </c>
-      <c r="C412" s="1">
-        <v>-23</v>
-      </c>
-      <c r="D412" s="5">
-        <f>DATE(2021,3,1)</f>
-        <v>44256</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A413" s="1">
-        <v>64</v>
-      </c>
-      <c r="B413" s="1">
-        <v>-40</v>
-      </c>
-      <c r="C413" s="1">
-        <v>-179</v>
-      </c>
-      <c r="D413" s="5">
-        <f>DATE(2021,4,1)</f>
-        <v>44287</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A414" s="1">
-        <v>-37</v>
-      </c>
-      <c r="B414" s="1">
-        <v>-167</v>
-      </c>
-      <c r="C414" s="1">
-        <v>-261</v>
-      </c>
-      <c r="D414" s="5">
-        <f>DATE(2021,5,1)</f>
-        <v>44317</v>
+      <c r="E409">
+        <v>0.86423671086237008</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D410" s="5"/>
+      <c r="E410">
+        <v>0.76631759929491983</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D411" s="5"/>
+      <c r="E411">
+        <v>0.81785397380410418</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D412" s="5"/>
+      <c r="E412">
+        <v>0.79208578654951201</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D413" s="5"/>
+      <c r="E413">
+        <v>0.19426384224297319</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D414" s="5"/>
+      <c r="E414">
+        <v>-0.46024811402366828</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E415">
+        <v>-0.92922912205724595</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E416">
+        <v>-1.1302209826430649</v>
+      </c>
+    </row>
+    <row r="417" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E417">
+        <v>-1.243601006563271</v>
+      </c>
+    </row>
+    <row r="418" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E418">
+        <v>-1.3105982934252101</v>
+      </c>
+    </row>
+    <row r="419" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E419">
+        <v>-1.346673755581639</v>
+      </c>
+    </row>
+    <row r="420" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E420">
+        <v>-1.248754644014189</v>
       </c>
     </row>
   </sheetData>
